--- a/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep1_MS1_2_calibrated.xlsx
+++ b/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep1_MS1_2_calibrated.xlsx
@@ -655,7 +655,7 @@
         <x:v>61751.5</x:v>
       </x:c>
       <x:c r="D4" s="6" t="n">
-        <x:v>1229.2946</x:v>
+        <x:v>1229.29825</x:v>
       </x:c>
       <x:c r="E4" s="6" t="n">
         <x:v>8598.0851</x:v>
@@ -669,7 +669,7 @@
         <x:v>136730.23</x:v>
       </x:c>
       <x:c r="D5" s="6" t="n">
-        <x:v>1075.75818</x:v>
+        <x:v>1075.76159</x:v>
       </x:c>
       <x:c r="E5" s="6" t="n">
         <x:v>8598.0839</x:v>
@@ -683,7 +683,7 @@
         <x:v>235728.89</x:v>
       </x:c>
       <x:c r="D6" s="6" t="n">
-        <x:v>956.34097</x:v>
+        <x:v>956.3442</x:v>
       </x:c>
       <x:c r="E6" s="6" t="n">
         <x:v>8598.0863</x:v>
@@ -697,7 +697,7 @@
         <x:v>466681.15</x:v>
       </x:c>
       <x:c r="D7" s="6" t="n">
-        <x:v>860.80719</x:v>
+        <x:v>860.81027</x:v>
       </x:c>
       <x:c r="E7" s="6" t="n">
         <x:v>8598.0879</x:v>
@@ -711,7 +711,7 @@
         <x:v>576403.89</x:v>
       </x:c>
       <x:c r="D8" s="6" t="n">
-        <x:v>782.6432</x:v>
+        <x:v>782.64616</x:v>
       </x:c>
       <x:c r="E8" s="6" t="n">
         <x:v>8598.0918</x:v>
@@ -725,7 +725,7 @@
         <x:v>385755.08</x:v>
       </x:c>
       <x:c r="D9" s="6" t="n">
-        <x:v>717.50654</x:v>
+        <x:v>717.50939</x:v>
       </x:c>
       <x:c r="E9" s="6" t="n">
         <x:v>8598.093</x:v>
@@ -739,7 +739,7 @@
         <x:v>130029.27</x:v>
       </x:c>
       <x:c r="D10" s="6" t="n">
-        <x:v>662.39089</x:v>
+        <x:v>662.39367</x:v>
       </x:c>
       <x:c r="E10" s="6" t="n">
         <x:v>8598.0883</x:v>
@@ -753,7 +753,7 @@
         <x:v>15437.32</x:v>
       </x:c>
       <x:c r="D11" s="6" t="n">
-        <x:v>615.14893</x:v>
+        <x:v>615.15163</x:v>
       </x:c>
       <x:c r="E11" s="6" t="n">
         <x:v>8598.0903</x:v>
@@ -816,7 +816,7 @@
         <x:v>61751.5</x:v>
       </x:c>
       <x:c r="D14" s="6" t="n">
-        <x:v>1229.2946</x:v>
+        <x:v>1229.29825</x:v>
       </x:c>
       <x:c r="E14" s="6" t="n">
         <x:v>8598.0851</x:v>
@@ -830,7 +830,7 @@
         <x:v>136730.23</x:v>
       </x:c>
       <x:c r="D15" s="6" t="n">
-        <x:v>1075.75818</x:v>
+        <x:v>1075.76159</x:v>
       </x:c>
       <x:c r="E15" s="6" t="n">
         <x:v>8598.0839</x:v>
@@ -844,7 +844,7 @@
         <x:v>235728.89</x:v>
       </x:c>
       <x:c r="D16" s="6" t="n">
-        <x:v>956.34097</x:v>
+        <x:v>956.3442</x:v>
       </x:c>
       <x:c r="E16" s="6" t="n">
         <x:v>8598.0863</x:v>
@@ -858,7 +858,7 @@
         <x:v>466681.15</x:v>
       </x:c>
       <x:c r="D17" s="6" t="n">
-        <x:v>860.80719</x:v>
+        <x:v>860.81027</x:v>
       </x:c>
       <x:c r="E17" s="6" t="n">
         <x:v>8598.0879</x:v>
@@ -872,7 +872,7 @@
         <x:v>576403.89</x:v>
       </x:c>
       <x:c r="D18" s="6" t="n">
-        <x:v>782.6432</x:v>
+        <x:v>782.64616</x:v>
       </x:c>
       <x:c r="E18" s="6" t="n">
         <x:v>8598.0918</x:v>
@@ -886,7 +886,7 @@
         <x:v>385755.08</x:v>
       </x:c>
       <x:c r="D19" s="6" t="n">
-        <x:v>717.50654</x:v>
+        <x:v>717.50939</x:v>
       </x:c>
       <x:c r="E19" s="6" t="n">
         <x:v>8598.093</x:v>
@@ -900,7 +900,7 @@
         <x:v>130029.27</x:v>
       </x:c>
       <x:c r="D20" s="6" t="n">
-        <x:v>662.39089</x:v>
+        <x:v>662.39367</x:v>
       </x:c>
       <x:c r="E20" s="6" t="n">
         <x:v>8598.0883</x:v>
@@ -914,7 +914,7 @@
         <x:v>15437.32</x:v>
       </x:c>
       <x:c r="D21" s="6" t="n">
-        <x:v>615.14893</x:v>
+        <x:v>615.15163</x:v>
       </x:c>
       <x:c r="E21" s="6" t="n">
         <x:v>8598.0903</x:v>
@@ -977,7 +977,7 @@
         <x:v>37231.71</x:v>
       </x:c>
       <x:c r="D24" s="6" t="n">
-        <x:v>1229.29471</x:v>
+        <x:v>1229.29839</x:v>
       </x:c>
       <x:c r="E24" s="6" t="n">
         <x:v>8598.0857</x:v>
@@ -991,7 +991,7 @@
         <x:v>91802.6</x:v>
       </x:c>
       <x:c r="D25" s="6" t="n">
-        <x:v>1075.75827</x:v>
+        <x:v>1075.76171</x:v>
       </x:c>
       <x:c r="E25" s="6" t="n">
         <x:v>8598.0837</x:v>
@@ -1005,7 +1005,7 @@
         <x:v>157965.9</x:v>
       </x:c>
       <x:c r="D26" s="6" t="n">
-        <x:v>956.34104</x:v>
+        <x:v>956.3443</x:v>
       </x:c>
       <x:c r="E26" s="6" t="n">
         <x:v>8598.0868</x:v>
@@ -1019,7 +1019,7 @@
         <x:v>327654.09</x:v>
       </x:c>
       <x:c r="D27" s="6" t="n">
-        <x:v>860.80725</x:v>
+        <x:v>860.81036</x:v>
       </x:c>
       <x:c r="E27" s="6" t="n">
         <x:v>8598.0887</x:v>
@@ -1033,7 +1033,7 @@
         <x:v>425921.83</x:v>
       </x:c>
       <x:c r="D28" s="6" t="n">
-        <x:v>782.64324</x:v>
+        <x:v>782.64623</x:v>
       </x:c>
       <x:c r="E28" s="6" t="n">
         <x:v>8598.0928</x:v>
@@ -1047,7 +1047,7 @@
         <x:v>276773.7</x:v>
       </x:c>
       <x:c r="D29" s="6" t="n">
-        <x:v>717.50657</x:v>
+        <x:v>717.50946</x:v>
       </x:c>
       <x:c r="E29" s="6" t="n">
         <x:v>8598.0922</x:v>
@@ -1061,7 +1061,7 @@
         <x:v>95023.91</x:v>
       </x:c>
       <x:c r="D30" s="6" t="n">
-        <x:v>662.39093</x:v>
+        <x:v>662.39374</x:v>
       </x:c>
       <x:c r="E30" s="6" t="n">
         <x:v>8598.0885</x:v>
@@ -1075,7 +1075,7 @@
         <x:v>12031.75</x:v>
       </x:c>
       <x:c r="D31" s="6" t="n">
-        <x:v>615.14894</x:v>
+        <x:v>615.15167</x:v>
       </x:c>
       <x:c r="E31" s="6" t="n">
         <x:v>8598.0936</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>34265.6</x:v>
       </x:c>
       <x:c r="D34" s="6" t="n">
-        <x:v>1229.29425</x:v>
+        <x:v>1229.29784</x:v>
       </x:c>
       <x:c r="E34" s="6" t="n">
         <x:v>8598.071</x:v>
@@ -1152,7 +1152,7 @@
         <x:v>70315.25</x:v>
       </x:c>
       <x:c r="D35" s="6" t="n">
-        <x:v>1075.75788</x:v>
+        <x:v>1075.76124</x:v>
       </x:c>
       <x:c r="E35" s="6" t="n">
         <x:v>8598.0803</x:v>
@@ -1166,7 +1166,7 @@
         <x:v>153474</x:v>
       </x:c>
       <x:c r="D36" s="6" t="n">
-        <x:v>956.34072</x:v>
+        <x:v>956.34388</x:v>
       </x:c>
       <x:c r="E36" s="6" t="n">
         <x:v>8598.0845</x:v>
@@ -1180,7 +1180,7 @@
         <x:v>289591.39</x:v>
       </x:c>
       <x:c r="D37" s="6" t="n">
-        <x:v>860.80699</x:v>
+        <x:v>860.81001</x:v>
       </x:c>
       <x:c r="E37" s="6" t="n">
         <x:v>8598.0865</x:v>
@@ -1194,7 +1194,7 @@
         <x:v>370051.55</x:v>
       </x:c>
       <x:c r="D38" s="6" t="n">
-        <x:v>782.64302</x:v>
+        <x:v>782.64592</x:v>
       </x:c>
       <x:c r="E38" s="6" t="n">
         <x:v>8598.0888</x:v>
@@ -1208,7 +1208,7 @@
         <x:v>275069.34</x:v>
       </x:c>
       <x:c r="D39" s="6" t="n">
-        <x:v>717.50638</x:v>
+        <x:v>717.50918</x:v>
       </x:c>
       <x:c r="E39" s="6" t="n">
         <x:v>8598.0913</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>112723.49</x:v>
       </x:c>
       <x:c r="D40" s="6" t="n">
-        <x:v>662.39077</x:v>
+        <x:v>662.39348</x:v>
       </x:c>
       <x:c r="E40" s="6" t="n">
         <x:v>8598.0885</x:v>
@@ -1236,7 +1236,7 @@
         <x:v>16396.51</x:v>
       </x:c>
       <x:c r="D41" s="6" t="n">
-        <x:v>615.14881</x:v>
+        <x:v>615.15145</x:v>
       </x:c>
       <x:c r="E41" s="6" t="n">
         <x:v>8598.0979</x:v>
@@ -1299,7 +1299,7 @@
         <x:v>34265.6</x:v>
       </x:c>
       <x:c r="D44" s="6" t="n">
-        <x:v>1229.29425</x:v>
+        <x:v>1229.29784</x:v>
       </x:c>
       <x:c r="E44" s="6" t="n">
         <x:v>8598.071</x:v>
@@ -1313,7 +1313,7 @@
         <x:v>70315.25</x:v>
       </x:c>
       <x:c r="D45" s="6" t="n">
-        <x:v>1075.75788</x:v>
+        <x:v>1075.76124</x:v>
       </x:c>
       <x:c r="E45" s="6" t="n">
         <x:v>8598.0803</x:v>
@@ -1327,7 +1327,7 @@
         <x:v>153474</x:v>
       </x:c>
       <x:c r="D46" s="6" t="n">
-        <x:v>956.34072</x:v>
+        <x:v>956.34388</x:v>
       </x:c>
       <x:c r="E46" s="6" t="n">
         <x:v>8598.0845</x:v>
@@ -1341,7 +1341,7 @@
         <x:v>289591.39</x:v>
       </x:c>
       <x:c r="D47" s="6" t="n">
-        <x:v>860.80699</x:v>
+        <x:v>860.81001</x:v>
       </x:c>
       <x:c r="E47" s="6" t="n">
         <x:v>8598.0865</x:v>
@@ -1355,7 +1355,7 @@
         <x:v>370051.55</x:v>
       </x:c>
       <x:c r="D48" s="6" t="n">
-        <x:v>782.64302</x:v>
+        <x:v>782.64592</x:v>
       </x:c>
       <x:c r="E48" s="6" t="n">
         <x:v>8598.0888</x:v>
@@ -1369,7 +1369,7 @@
         <x:v>275069.34</x:v>
       </x:c>
       <x:c r="D49" s="6" t="n">
-        <x:v>717.50638</x:v>
+        <x:v>717.50918</x:v>
       </x:c>
       <x:c r="E49" s="6" t="n">
         <x:v>8598.0913</x:v>
@@ -1383,7 +1383,7 @@
         <x:v>112723.49</x:v>
       </x:c>
       <x:c r="D50" s="6" t="n">
-        <x:v>662.39077</x:v>
+        <x:v>662.39348</x:v>
       </x:c>
       <x:c r="E50" s="6" t="n">
         <x:v>8598.0885</x:v>
@@ -1397,7 +1397,7 @@
         <x:v>16396.51</x:v>
       </x:c>
       <x:c r="D51" s="6" t="n">
-        <x:v>615.14881</x:v>
+        <x:v>615.15145</x:v>
       </x:c>
       <x:c r="E51" s="6" t="n">
         <x:v>8598.0979</x:v>
@@ -1460,7 +1460,7 @@
         <x:v>27145.02</x:v>
       </x:c>
       <x:c r="D54" s="6" t="n">
-        <x:v>1229.29361</x:v>
+        <x:v>1229.29723</x:v>
       </x:c>
       <x:c r="E54" s="6" t="n">
         <x:v>8598.0806</x:v>
@@ -1474,7 +1474,7 @@
         <x:v>66356.49</x:v>
       </x:c>
       <x:c r="D55" s="6" t="n">
-        <x:v>1075.75732</x:v>
+        <x:v>1075.7607</x:v>
       </x:c>
       <x:c r="E55" s="6" t="n">
         <x:v>8598.0805</x:v>
@@ -1488,7 +1488,7 @@
         <x:v>104502.47</x:v>
       </x:c>
       <x:c r="D56" s="6" t="n">
-        <x:v>956.3402</x:v>
+        <x:v>956.3434</x:v>
       </x:c>
       <x:c r="E56" s="6" t="n">
         <x:v>8598.0805</x:v>
@@ -1502,7 +1502,7 @@
         <x:v>231467.81</x:v>
       </x:c>
       <x:c r="D57" s="6" t="n">
-        <x:v>860.80652</x:v>
+        <x:v>860.80957</x:v>
       </x:c>
       <x:c r="E57" s="6" t="n">
         <x:v>8598.0878</x:v>
@@ -1516,7 +1516,7 @@
         <x:v>301576.16</x:v>
       </x:c>
       <x:c r="D58" s="6" t="n">
-        <x:v>782.64259</x:v>
+        <x:v>782.64552</x:v>
       </x:c>
       <x:c r="E58" s="6" t="n">
         <x:v>8598.0884</x:v>
@@ -1530,7 +1530,7 @@
         <x:v>201146.87</x:v>
       </x:c>
       <x:c r="D59" s="6" t="n">
-        <x:v>717.50599</x:v>
+        <x:v>717.50882</x:v>
       </x:c>
       <x:c r="E59" s="6" t="n">
         <x:v>8598.0934</x:v>
@@ -1544,7 +1544,7 @@
         <x:v>82915.96</x:v>
       </x:c>
       <x:c r="D60" s="6" t="n">
-        <x:v>662.3904</x:v>
+        <x:v>662.39314</x:v>
       </x:c>
       <x:c r="E60" s="6" t="n">
         <x:v>8598.0836</x:v>
@@ -1558,7 +1558,7 @@
         <x:v>12613.89</x:v>
       </x:c>
       <x:c r="D61" s="6" t="n">
-        <x:v>615.14846</x:v>
+        <x:v>615.15113</x:v>
       </x:c>
       <x:c r="E61" s="6" t="n">
         <x:v>8598.0847</x:v>
@@ -1621,7 +1621,7 @@
         <x:v>27145.02</x:v>
       </x:c>
       <x:c r="D64" s="6" t="n">
-        <x:v>1229.29361</x:v>
+        <x:v>1229.29723</x:v>
       </x:c>
       <x:c r="E64" s="6" t="n">
         <x:v>8598.0806</x:v>
@@ -1635,7 +1635,7 @@
         <x:v>66356.49</x:v>
       </x:c>
       <x:c r="D65" s="6" t="n">
-        <x:v>1075.75732</x:v>
+        <x:v>1075.7607</x:v>
       </x:c>
       <x:c r="E65" s="6" t="n">
         <x:v>8598.0805</x:v>
@@ -1649,7 +1649,7 @@
         <x:v>104502.47</x:v>
       </x:c>
       <x:c r="D66" s="6" t="n">
-        <x:v>956.3402</x:v>
+        <x:v>956.3434</x:v>
       </x:c>
       <x:c r="E66" s="6" t="n">
         <x:v>8598.0805</x:v>
@@ -1663,7 +1663,7 @@
         <x:v>231467.81</x:v>
       </x:c>
       <x:c r="D67" s="6" t="n">
-        <x:v>860.80652</x:v>
+        <x:v>860.80957</x:v>
       </x:c>
       <x:c r="E67" s="6" t="n">
         <x:v>8598.0878</x:v>
@@ -1677,7 +1677,7 @@
         <x:v>301576.16</x:v>
       </x:c>
       <x:c r="D68" s="6" t="n">
-        <x:v>782.64259</x:v>
+        <x:v>782.64552</x:v>
       </x:c>
       <x:c r="E68" s="6" t="n">
         <x:v>8598.0884</x:v>
@@ -1691,7 +1691,7 @@
         <x:v>201146.87</x:v>
       </x:c>
       <x:c r="D69" s="6" t="n">
-        <x:v>717.50599</x:v>
+        <x:v>717.50882</x:v>
       </x:c>
       <x:c r="E69" s="6" t="n">
         <x:v>8598.0934</x:v>
@@ -1705,7 +1705,7 @@
         <x:v>82915.96</x:v>
       </x:c>
       <x:c r="D70" s="6" t="n">
-        <x:v>662.3904</x:v>
+        <x:v>662.39314</x:v>
       </x:c>
       <x:c r="E70" s="6" t="n">
         <x:v>8598.0836</x:v>
@@ -1719,7 +1719,7 @@
         <x:v>12613.89</x:v>
       </x:c>
       <x:c r="D71" s="6" t="n">
-        <x:v>615.14846</x:v>
+        <x:v>615.15113</x:v>
       </x:c>
       <x:c r="E71" s="6" t="n">
         <x:v>8598.0847</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>16258.9</x:v>
       </x:c>
       <x:c r="D74" s="6" t="n">
-        <x:v>1229.29405</x:v>
+        <x:v>1229.29764</x:v>
       </x:c>
       <x:c r="E74" s="6" t="n">
         <x:v>8598.0707</x:v>
@@ -1796,7 +1796,7 @@
         <x:v>57669.11</x:v>
       </x:c>
       <x:c r="D75" s="6" t="n">
-        <x:v>1075.75771</x:v>
+        <x:v>1075.76107</x:v>
       </x:c>
       <x:c r="E75" s="6" t="n">
         <x:v>8598.0749</x:v>
@@ -1810,7 +1810,7 @@
         <x:v>127658.18</x:v>
       </x:c>
       <x:c r="D76" s="6" t="n">
-        <x:v>956.34056</x:v>
+        <x:v>956.34372</x:v>
       </x:c>
       <x:c r="E76" s="6" t="n">
         <x:v>8598.0804</x:v>
@@ -1824,7 +1824,7 @@
         <x:v>225032.55</x:v>
       </x:c>
       <x:c r="D77" s="6" t="n">
-        <x:v>860.80685</x:v>
+        <x:v>860.80987</x:v>
       </x:c>
       <x:c r="E77" s="6" t="n">
         <x:v>8598.0822</x:v>
@@ -1838,7 +1838,7 @@
         <x:v>299721.38</x:v>
       </x:c>
       <x:c r="D78" s="6" t="n">
-        <x:v>782.64289</x:v>
+        <x:v>782.64579</x:v>
       </x:c>
       <x:c r="E78" s="6" t="n">
         <x:v>8598.0853</x:v>
@@ -1852,7 +1852,7 @@
         <x:v>206438.18</x:v>
       </x:c>
       <x:c r="D79" s="6" t="n">
-        <x:v>717.50626</x:v>
+        <x:v>717.50906</x:v>
       </x:c>
       <x:c r="E79" s="6" t="n">
         <x:v>8598.0841</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>80691.78</x:v>
       </x:c>
       <x:c r="D80" s="6" t="n">
-        <x:v>662.39066</x:v>
+        <x:v>662.39337</x:v>
       </x:c>
       <x:c r="E80" s="6" t="n">
         <x:v>8598.084</x:v>
@@ -1880,7 +1880,7 @@
         <x:v>8967.78</x:v>
       </x:c>
       <x:c r="D81" s="6" t="n">
-        <x:v>615.14871</x:v>
+        <x:v>615.15135</x:v>
       </x:c>
       <x:c r="E81" s="6" t="n">
         <x:v>8598.0793</x:v>
@@ -1943,7 +1943,7 @@
         <x:v>17318.56</x:v>
       </x:c>
       <x:c r="D84" s="6" t="n">
-        <x:v>1229.29483</x:v>
+        <x:v>1229.29851</x:v>
       </x:c>
       <x:c r="E84" s="6" t="n">
         <x:v>8598.0843</x:v>
@@ -1957,7 +1957,7 @@
         <x:v>55114.19</x:v>
       </x:c>
       <x:c r="D85" s="6" t="n">
-        <x:v>1075.75837</x:v>
+        <x:v>1075.76181</x:v>
       </x:c>
       <x:c r="E85" s="6" t="n">
         <x:v>8598.086</x:v>
@@ -1971,7 +1971,7 @@
         <x:v>96927.8</x:v>
       </x:c>
       <x:c r="D86" s="6" t="n">
-        <x:v>956.34113</x:v>
+        <x:v>956.34439</x:v>
       </x:c>
       <x:c r="E86" s="6" t="n">
         <x:v>8598.089</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>211295.59</x:v>
       </x:c>
       <x:c r="D87" s="6" t="n">
-        <x:v>860.80733</x:v>
+        <x:v>860.81044</x:v>
       </x:c>
       <x:c r="E87" s="6" t="n">
         <x:v>8598.0923</x:v>
@@ -1999,7 +1999,7 @@
         <x:v>290661.12</x:v>
       </x:c>
       <x:c r="D88" s="6" t="n">
-        <x:v>782.64332</x:v>
+        <x:v>782.64631</x:v>
       </x:c>
       <x:c r="E88" s="6" t="n">
         <x:v>8598.095</x:v>
@@ -2013,7 +2013,7 @@
         <x:v>166760.05</x:v>
       </x:c>
       <x:c r="D89" s="6" t="n">
-        <x:v>717.50664</x:v>
+        <x:v>717.50953</x:v>
       </x:c>
       <x:c r="E89" s="6" t="n">
         <x:v>8598.0952</x:v>
@@ -2027,7 +2027,7 @@
         <x:v>61564.95</x:v>
       </x:c>
       <x:c r="D90" s="6" t="n">
-        <x:v>662.39099</x:v>
+        <x:v>662.3938</x:v>
       </x:c>
       <x:c r="E90" s="6" t="n">
         <x:v>8598.0879</x:v>
@@ -2041,7 +2041,7 @@
         <x:v>10136.24</x:v>
       </x:c>
       <x:c r="D91" s="6" t="n">
-        <x:v>615.149</x:v>
+        <x:v>615.15173</x:v>
       </x:c>
       <x:c r="E91" s="6" t="n">
         <x:v>8598.092</x:v>
@@ -2104,7 +2104,7 @@
         <x:v>17318.56</x:v>
       </x:c>
       <x:c r="D94" s="6" t="n">
-        <x:v>1229.29483</x:v>
+        <x:v>1229.29851</x:v>
       </x:c>
       <x:c r="E94" s="6" t="n">
         <x:v>8598.0843</x:v>
@@ -2118,7 +2118,7 @@
         <x:v>55114.19</x:v>
       </x:c>
       <x:c r="D95" s="6" t="n">
-        <x:v>1075.75837</x:v>
+        <x:v>1075.76181</x:v>
       </x:c>
       <x:c r="E95" s="6" t="n">
         <x:v>8598.086</x:v>
@@ -2132,7 +2132,7 @@
         <x:v>96927.8</x:v>
       </x:c>
       <x:c r="D96" s="6" t="n">
-        <x:v>956.34113</x:v>
+        <x:v>956.34439</x:v>
       </x:c>
       <x:c r="E96" s="6" t="n">
         <x:v>8598.089</x:v>
@@ -2146,7 +2146,7 @@
         <x:v>211295.59</x:v>
       </x:c>
       <x:c r="D97" s="6" t="n">
-        <x:v>860.80733</x:v>
+        <x:v>860.81044</x:v>
       </x:c>
       <x:c r="E97" s="6" t="n">
         <x:v>8598.0923</x:v>
@@ -2160,7 +2160,7 @@
         <x:v>290661.12</x:v>
       </x:c>
       <x:c r="D98" s="6" t="n">
-        <x:v>782.64332</x:v>
+        <x:v>782.64631</x:v>
       </x:c>
       <x:c r="E98" s="6" t="n">
         <x:v>8598.095</x:v>
@@ -2174,7 +2174,7 @@
         <x:v>166760.05</x:v>
       </x:c>
       <x:c r="D99" s="6" t="n">
-        <x:v>717.50664</x:v>
+        <x:v>717.50953</x:v>
       </x:c>
       <x:c r="E99" s="6" t="n">
         <x:v>8598.0952</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>61564.95</x:v>
       </x:c>
       <x:c r="D100" s="6" t="n">
-        <x:v>662.39099</x:v>
+        <x:v>662.3938</x:v>
       </x:c>
       <x:c r="E100" s="6" t="n">
         <x:v>8598.0879</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>10136.24</x:v>
       </x:c>
       <x:c r="D101" s="6" t="n">
-        <x:v>615.149</x:v>
+        <x:v>615.15173</x:v>
       </x:c>
       <x:c r="E101" s="6" t="n">
         <x:v>8598.092</x:v>
@@ -2265,7 +2265,7 @@
         <x:v>26830</x:v>
       </x:c>
       <x:c r="D104" s="6" t="n">
-        <x:v>1263.31141</x:v>
+        <x:v>1263.31509</x:v>
       </x:c>
       <x:c r="E104" s="6" t="n">
         <x:v>8836.2077</x:v>
@@ -2279,7 +2279,7 @@
         <x:v>88055.08</x:v>
       </x:c>
       <x:c r="D105" s="6" t="n">
-        <x:v>1105.52289</x:v>
+        <x:v>1105.52632</x:v>
       </x:c>
       <x:c r="E105" s="6" t="n">
         <x:v>8836.2025</x:v>
@@ -2293,7 +2293,7 @@
         <x:v>120983.36</x:v>
       </x:c>
       <x:c r="D106" s="6" t="n">
-        <x:v>982.7985</x:v>
+        <x:v>982.80173</x:v>
       </x:c>
       <x:c r="E106" s="6" t="n">
         <x:v>8836.2084</x:v>
@@ -2307,7 +2307,7 @@
         <x:v>248208.63</x:v>
       </x:c>
       <x:c r="D107" s="6" t="n">
-        <x:v>884.61898</x:v>
+        <x:v>884.62207</x:v>
       </x:c>
       <x:c r="E107" s="6" t="n">
         <x:v>8836.2094</x:v>
@@ -2321,7 +2321,7 @@
         <x:v>253546.58</x:v>
       </x:c>
       <x:c r="D108" s="6" t="n">
-        <x:v>804.29028</x:v>
+        <x:v>804.29324</x:v>
       </x:c>
       <x:c r="E108" s="6" t="n">
         <x:v>8836.2125</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>83913.24</x:v>
       </x:c>
       <x:c r="D109" s="6" t="n">
-        <x:v>737.3497</x:v>
+        <x:v>737.35256</x:v>
       </x:c>
       <x:c r="E109" s="6" t="n">
         <x:v>8836.2146</x:v>
@@ -2398,7 +2398,7 @@
         <x:v>26830</x:v>
       </x:c>
       <x:c r="D112" s="6" t="n">
-        <x:v>1263.31141</x:v>
+        <x:v>1263.31509</x:v>
       </x:c>
       <x:c r="E112" s="6" t="n">
         <x:v>8836.2077</x:v>
@@ -2412,7 +2412,7 @@
         <x:v>88055.08</x:v>
       </x:c>
       <x:c r="D113" s="6" t="n">
-        <x:v>1105.52289</x:v>
+        <x:v>1105.52632</x:v>
       </x:c>
       <x:c r="E113" s="6" t="n">
         <x:v>8836.2025</x:v>
@@ -2426,7 +2426,7 @@
         <x:v>120983.36</x:v>
       </x:c>
       <x:c r="D114" s="6" t="n">
-        <x:v>982.7985</x:v>
+        <x:v>982.80173</x:v>
       </x:c>
       <x:c r="E114" s="6" t="n">
         <x:v>8836.2084</x:v>
@@ -2440,7 +2440,7 @@
         <x:v>248208.63</x:v>
       </x:c>
       <x:c r="D115" s="6" t="n">
-        <x:v>884.61898</x:v>
+        <x:v>884.62207</x:v>
       </x:c>
       <x:c r="E115" s="6" t="n">
         <x:v>8836.2094</x:v>
@@ -2454,7 +2454,7 @@
         <x:v>253546.58</x:v>
       </x:c>
       <x:c r="D116" s="6" t="n">
-        <x:v>804.29028</x:v>
+        <x:v>804.29324</x:v>
       </x:c>
       <x:c r="E116" s="6" t="n">
         <x:v>8836.2125</x:v>
@@ -2468,7 +2468,7 @@
         <x:v>83913.24</x:v>
       </x:c>
       <x:c r="D117" s="6" t="n">
-        <x:v>737.3497</x:v>
+        <x:v>737.35256</x:v>
       </x:c>
       <x:c r="E117" s="6" t="n">
         <x:v>8836.2146</x:v>
@@ -2531,7 +2531,7 @@
         <x:v>42195.82</x:v>
       </x:c>
       <x:c r="D120" s="6" t="n">
-        <x:v>1075.75609</x:v>
+        <x:v>1075.75941</x:v>
       </x:c>
       <x:c r="E120" s="6" t="n">
         <x:v>8598.0707</x:v>
@@ -2545,7 +2545,7 @@
         <x:v>109746.87</x:v>
       </x:c>
       <x:c r="D121" s="6" t="n">
-        <x:v>956.33912</x:v>
+        <x:v>956.34226</x:v>
       </x:c>
       <x:c r="E121" s="6" t="n">
         <x:v>8598.0769</x:v>
@@ -2559,7 +2559,7 @@
         <x:v>169443.96</x:v>
       </x:c>
       <x:c r="D122" s="6" t="n">
-        <x:v>860.80555</x:v>
+        <x:v>860.80854</x:v>
       </x:c>
       <x:c r="E122" s="6" t="n">
         <x:v>8598.077</x:v>
@@ -2573,7 +2573,7 @@
         <x:v>261957.96</x:v>
       </x:c>
       <x:c r="D123" s="6" t="n">
-        <x:v>782.64173</x:v>
+        <x:v>782.64459</x:v>
       </x:c>
       <x:c r="E123" s="6" t="n">
         <x:v>8598.0797</x:v>
@@ -2587,7 +2587,7 @@
         <x:v>161340.18</x:v>
       </x:c>
       <x:c r="D124" s="6" t="n">
-        <x:v>717.5052</x:v>
+        <x:v>717.50797</x:v>
       </x:c>
       <x:c r="E124" s="6" t="n">
         <x:v>8598.0737</x:v>
@@ -2601,7 +2601,7 @@
         <x:v>51946.31</x:v>
       </x:c>
       <x:c r="D125" s="6" t="n">
-        <x:v>662.38968</x:v>
+        <x:v>662.39236</x:v>
       </x:c>
       <x:c r="E125" s="6" t="n">
         <x:v>8598.0769</x:v>
@@ -2664,7 +2664,7 @@
         <x:v>42195.82</x:v>
       </x:c>
       <x:c r="D128" s="6" t="n">
-        <x:v>1075.75609</x:v>
+        <x:v>1075.75941</x:v>
       </x:c>
       <x:c r="E128" s="6" t="n">
         <x:v>8598.0707</x:v>
@@ -2678,7 +2678,7 @@
         <x:v>109746.87</x:v>
       </x:c>
       <x:c r="D129" s="6" t="n">
-        <x:v>956.33912</x:v>
+        <x:v>956.34226</x:v>
       </x:c>
       <x:c r="E129" s="6" t="n">
         <x:v>8598.0769</x:v>
@@ -2692,7 +2692,7 @@
         <x:v>169443.96</x:v>
       </x:c>
       <x:c r="D130" s="6" t="n">
-        <x:v>860.80555</x:v>
+        <x:v>860.80854</x:v>
       </x:c>
       <x:c r="E130" s="6" t="n">
         <x:v>8598.077</x:v>
@@ -2706,7 +2706,7 @@
         <x:v>261957.96</x:v>
       </x:c>
       <x:c r="D131" s="6" t="n">
-        <x:v>782.64173</x:v>
+        <x:v>782.64459</x:v>
       </x:c>
       <x:c r="E131" s="6" t="n">
         <x:v>8598.0797</x:v>
@@ -2720,7 +2720,7 @@
         <x:v>161340.18</x:v>
       </x:c>
       <x:c r="D132" s="6" t="n">
-        <x:v>717.5052</x:v>
+        <x:v>717.50797</x:v>
       </x:c>
       <x:c r="E132" s="6" t="n">
         <x:v>8598.0737</x:v>
@@ -2734,7 +2734,7 @@
         <x:v>51946.31</x:v>
       </x:c>
       <x:c r="D133" s="6" t="n">
-        <x:v>662.38968</x:v>
+        <x:v>662.39236</x:v>
       </x:c>
       <x:c r="E133" s="6" t="n">
         <x:v>8598.0769</x:v>
@@ -2797,7 +2797,7 @@
         <x:v>19795.76</x:v>
       </x:c>
       <x:c r="D136" s="6" t="n">
-        <x:v>1293.31295</x:v>
+        <x:v>1293.31661</x:v>
       </x:c>
       <x:c r="E136" s="6" t="n">
         <x:v>9046.2119</x:v>
@@ -2811,7 +2811,7 @@
         <x:v>57700.39</x:v>
       </x:c>
       <x:c r="D137" s="6" t="n">
-        <x:v>1131.77426</x:v>
+        <x:v>1131.77767</x:v>
       </x:c>
       <x:c r="E137" s="6" t="n">
         <x:v>9046.2187</x:v>
@@ -2825,7 +2825,7 @@
         <x:v>125254.76</x:v>
       </x:c>
       <x:c r="D138" s="6" t="n">
-        <x:v>1006.13306</x:v>
+        <x:v>1006.13628</x:v>
       </x:c>
       <x:c r="E138" s="6" t="n">
         <x:v>9046.2146</x:v>
@@ -2839,7 +2839,7 @@
         <x:v>204144.08</x:v>
       </x:c>
       <x:c r="D139" s="6" t="n">
-        <x:v>905.6201</x:v>
+        <x:v>905.62316</x:v>
       </x:c>
       <x:c r="E139" s="6" t="n">
         <x:v>9046.2209</x:v>
@@ -2853,7 +2853,7 @@
         <x:v>218344.6</x:v>
       </x:c>
       <x:c r="D140" s="6" t="n">
-        <x:v>823.38222</x:v>
+        <x:v>823.38515</x:v>
       </x:c>
       <x:c r="E140" s="6" t="n">
         <x:v>9046.2201</x:v>
@@ -2867,7 +2867,7 @@
         <x:v>73971.81</x:v>
       </x:c>
       <x:c r="D141" s="6" t="n">
-        <x:v>754.85065</x:v>
+        <x:v>754.85347</x:v>
       </x:c>
       <x:c r="E141" s="6" t="n">
         <x:v>9046.2231</x:v>
@@ -2930,7 +2930,7 @@
         <x:v>19795.76</x:v>
       </x:c>
       <x:c r="D144" s="6" t="n">
-        <x:v>1293.31295</x:v>
+        <x:v>1293.31661</x:v>
       </x:c>
       <x:c r="E144" s="6" t="n">
         <x:v>9046.2119</x:v>
@@ -2944,7 +2944,7 @@
         <x:v>57700.39</x:v>
       </x:c>
       <x:c r="D145" s="6" t="n">
-        <x:v>1131.77426</x:v>
+        <x:v>1131.77767</x:v>
       </x:c>
       <x:c r="E145" s="6" t="n">
         <x:v>9046.2187</x:v>
@@ -2958,7 +2958,7 @@
         <x:v>125254.76</x:v>
       </x:c>
       <x:c r="D146" s="6" t="n">
-        <x:v>1006.13306</x:v>
+        <x:v>1006.13628</x:v>
       </x:c>
       <x:c r="E146" s="6" t="n">
         <x:v>9046.2146</x:v>
@@ -2972,7 +2972,7 @@
         <x:v>204144.08</x:v>
       </x:c>
       <x:c r="D147" s="6" t="n">
-        <x:v>905.6201</x:v>
+        <x:v>905.62316</x:v>
       </x:c>
       <x:c r="E147" s="6" t="n">
         <x:v>9046.2209</x:v>
@@ -2986,7 +2986,7 @@
         <x:v>218344.6</x:v>
       </x:c>
       <x:c r="D148" s="6" t="n">
-        <x:v>823.38222</x:v>
+        <x:v>823.38515</x:v>
       </x:c>
       <x:c r="E148" s="6" t="n">
         <x:v>9046.2201</x:v>
@@ -3000,7 +3000,7 @@
         <x:v>73971.81</x:v>
       </x:c>
       <x:c r="D149" s="6" t="n">
-        <x:v>754.85065</x:v>
+        <x:v>754.85347</x:v>
       </x:c>
       <x:c r="E149" s="6" t="n">
         <x:v>9046.2231</x:v>
@@ -3063,7 +3063,7 @@
         <x:v>23559.93</x:v>
       </x:c>
       <x:c r="D152" s="6" t="n">
-        <x:v>1263.31216</x:v>
+        <x:v>1263.3158</x:v>
       </x:c>
       <x:c r="E152" s="6" t="n">
         <x:v>8836.2136</x:v>
@@ -3077,7 +3077,7 @@
         <x:v>49753.83</x:v>
       </x:c>
       <x:c r="D153" s="6" t="n">
-        <x:v>1105.52356</x:v>
+        <x:v>1105.52695</x:v>
       </x:c>
       <x:c r="E153" s="6" t="n">
         <x:v>8836.2011</x:v>
@@ -3091,7 +3091,7 @@
         <x:v>99642.31</x:v>
       </x:c>
       <x:c r="D154" s="6" t="n">
-        <x:v>982.79909</x:v>
+        <x:v>982.8023</x:v>
       </x:c>
       <x:c r="E154" s="6" t="n">
         <x:v>8836.2004</x:v>
@@ -3105,7 +3105,7 @@
         <x:v>176308.25</x:v>
       </x:c>
       <x:c r="D155" s="6" t="n">
-        <x:v>884.61951</x:v>
+        <x:v>884.62257</x:v>
       </x:c>
       <x:c r="E155" s="6" t="n">
         <x:v>8836.2097</x:v>
@@ -3119,7 +3119,7 @@
         <x:v>195664.99</x:v>
       </x:c>
       <x:c r="D156" s="6" t="n">
-        <x:v>804.29078</x:v>
+        <x:v>804.29371</x:v>
       </x:c>
       <x:c r="E156" s="6" t="n">
         <x:v>8836.2162</x:v>
@@ -3133,7 +3133,7 @@
         <x:v>71719.69</x:v>
       </x:c>
       <x:c r="D157" s="6" t="n">
-        <x:v>737.35016</x:v>
+        <x:v>737.35299</x:v>
       </x:c>
       <x:c r="E157" s="6" t="n">
         <x:v>8836.2172</x:v>
@@ -3196,7 +3196,7 @@
         <x:v>23559.93</x:v>
       </x:c>
       <x:c r="D160" s="6" t="n">
-        <x:v>1263.31216</x:v>
+        <x:v>1263.3158</x:v>
       </x:c>
       <x:c r="E160" s="6" t="n">
         <x:v>8836.2136</x:v>
@@ -3210,7 +3210,7 @@
         <x:v>49753.83</x:v>
       </x:c>
       <x:c r="D161" s="6" t="n">
-        <x:v>1105.52356</x:v>
+        <x:v>1105.52695</x:v>
       </x:c>
       <x:c r="E161" s="6" t="n">
         <x:v>8836.2011</x:v>
@@ -3224,7 +3224,7 @@
         <x:v>99642.31</x:v>
       </x:c>
       <x:c r="D162" s="6" t="n">
-        <x:v>982.79909</x:v>
+        <x:v>982.8023</x:v>
       </x:c>
       <x:c r="E162" s="6" t="n">
         <x:v>8836.2004</x:v>
@@ -3238,7 +3238,7 @@
         <x:v>176308.25</x:v>
       </x:c>
       <x:c r="D163" s="6" t="n">
-        <x:v>884.61951</x:v>
+        <x:v>884.62257</x:v>
       </x:c>
       <x:c r="E163" s="6" t="n">
         <x:v>8836.2097</x:v>
@@ -3252,7 +3252,7 @@
         <x:v>195664.99</x:v>
       </x:c>
       <x:c r="D164" s="6" t="n">
-        <x:v>804.29078</x:v>
+        <x:v>804.29371</x:v>
       </x:c>
       <x:c r="E164" s="6" t="n">
         <x:v>8836.2162</x:v>
@@ -3266,7 +3266,7 @@
         <x:v>71719.69</x:v>
       </x:c>
       <x:c r="D165" s="6" t="n">
-        <x:v>737.35016</x:v>
+        <x:v>737.35299</x:v>
       </x:c>
       <x:c r="E165" s="6" t="n">
         <x:v>8836.2172</x:v>
@@ -3329,7 +3329,7 @@
         <x:v>27599.19</x:v>
       </x:c>
       <x:c r="D168" s="6" t="n">
-        <x:v>1131.77451</x:v>
+        <x:v>1131.77795</x:v>
       </x:c>
       <x:c r="E168" s="6" t="n">
         <x:v>9046.2196</x:v>
@@ -3343,7 +3343,7 @@
         <x:v>81644.04</x:v>
       </x:c>
       <x:c r="D169" s="6" t="n">
-        <x:v>1006.13327</x:v>
+        <x:v>1006.13651</x:v>
       </x:c>
       <x:c r="E169" s="6" t="n">
         <x:v>9046.2176</x:v>
@@ -3357,7 +3357,7 @@
         <x:v>142601.85</x:v>
       </x:c>
       <x:c r="D170" s="6" t="n">
-        <x:v>905.62028</x:v>
+        <x:v>905.62337</x:v>
       </x:c>
       <x:c r="E170" s="6" t="n">
         <x:v>9046.223</x:v>
@@ -3371,7 +3371,7 @@
         <x:v>155117.33</x:v>
       </x:c>
       <x:c r="D171" s="6" t="n">
-        <x:v>823.38238</x:v>
+        <x:v>823.38534</x:v>
       </x:c>
       <x:c r="E171" s="6" t="n">
         <x:v>9046.2225</x:v>
@@ -3385,7 +3385,7 @@
         <x:v>45277.95</x:v>
       </x:c>
       <x:c r="D172" s="6" t="n">
-        <x:v>754.8508</x:v>
+        <x:v>754.85365</x:v>
       </x:c>
       <x:c r="E172" s="6" t="n">
         <x:v>9046.2238</x:v>
@@ -3448,7 +3448,7 @@
         <x:v>19157.43</x:v>
       </x:c>
       <x:c r="D175" s="6" t="n">
-        <x:v>1297.32894</x:v>
+        <x:v>1297.33267</x:v>
       </x:c>
       <x:c r="E175" s="6" t="n">
         <x:v>9074.3388</x:v>
@@ -3462,7 +3462,7 @@
         <x:v>43451.69</x:v>
       </x:c>
       <x:c r="D176" s="6" t="n">
-        <x:v>1135.28824</x:v>
+        <x:v>1135.29171</x:v>
       </x:c>
       <x:c r="E176" s="6" t="n">
         <x:v>9074.3254</x:v>
@@ -3476,7 +3476,7 @@
         <x:v>57690.89</x:v>
       </x:c>
       <x:c r="D177" s="6" t="n">
-        <x:v>1009.25658</x:v>
+        <x:v>1009.25986</x:v>
       </x:c>
       <x:c r="E177" s="6" t="n">
         <x:v>9074.3277</x:v>
@@ -3490,7 +3490,7 @@
         <x:v>85848.25</x:v>
       </x:c>
       <x:c r="D178" s="6" t="n">
-        <x:v>908.43125</x:v>
+        <x:v>908.43437</x:v>
       </x:c>
       <x:c r="E178" s="6" t="n">
         <x:v>9074.332</x:v>
@@ -3504,7 +3504,7 @@
         <x:v>81111.09</x:v>
       </x:c>
       <x:c r="D179" s="6" t="n">
-        <x:v>825.9378</x:v>
+        <x:v>825.9408</x:v>
       </x:c>
       <x:c r="E179" s="6" t="n">
         <x:v>9074.3375</x:v>
@@ -3567,7 +3567,7 @@
         <x:v>19157.43</x:v>
       </x:c>
       <x:c r="D182" s="6" t="n">
-        <x:v>1297.32894</x:v>
+        <x:v>1297.33267</x:v>
       </x:c>
       <x:c r="E182" s="6" t="n">
         <x:v>9074.3388</x:v>
@@ -3581,7 +3581,7 @@
         <x:v>43451.69</x:v>
       </x:c>
       <x:c r="D183" s="6" t="n">
-        <x:v>1135.28824</x:v>
+        <x:v>1135.29171</x:v>
       </x:c>
       <x:c r="E183" s="6" t="n">
         <x:v>9074.3254</x:v>
@@ -3595,7 +3595,7 @@
         <x:v>57690.89</x:v>
       </x:c>
       <x:c r="D184" s="6" t="n">
-        <x:v>1009.25658</x:v>
+        <x:v>1009.25986</x:v>
       </x:c>
       <x:c r="E184" s="6" t="n">
         <x:v>9074.3277</x:v>
@@ -3609,7 +3609,7 @@
         <x:v>85848.25</x:v>
       </x:c>
       <x:c r="D185" s="6" t="n">
-        <x:v>908.43125</x:v>
+        <x:v>908.43437</x:v>
       </x:c>
       <x:c r="E185" s="6" t="n">
         <x:v>9074.332</x:v>
@@ -3623,7 +3623,7 @@
         <x:v>81111.09</x:v>
       </x:c>
       <x:c r="D186" s="6" t="n">
-        <x:v>825.9378</x:v>
+        <x:v>825.9408</x:v>
       </x:c>
       <x:c r="E186" s="6" t="n">
         <x:v>9074.3375</x:v>
@@ -3686,7 +3686,7 @@
         <x:v>17931.07</x:v>
       </x:c>
       <x:c r="D189" s="6" t="n">
-        <x:v>1105.52331</x:v>
+        <x:v>1105.5267</x:v>
       </x:c>
       <x:c r="E189" s="6" t="n">
         <x:v>8836.208</x:v>
@@ -3700,7 +3700,7 @@
         <x:v>44601.78</x:v>
       </x:c>
       <x:c r="D190" s="6" t="n">
-        <x:v>982.79887</x:v>
+        <x:v>982.80208</x:v>
       </x:c>
       <x:c r="E190" s="6" t="n">
         <x:v>8836.2025</x:v>
@@ -3714,7 +3714,7 @@
         <x:v>86968.94</x:v>
       </x:c>
       <x:c r="D191" s="6" t="n">
-        <x:v>884.61932</x:v>
+        <x:v>884.62238</x:v>
       </x:c>
       <x:c r="E191" s="6" t="n">
         <x:v>8836.2085</x:v>
@@ -3728,7 +3728,7 @@
         <x:v>93558.19</x:v>
       </x:c>
       <x:c r="D192" s="6" t="n">
-        <x:v>804.2906</x:v>
+        <x:v>804.29353</x:v>
       </x:c>
       <x:c r="E192" s="6" t="n">
         <x:v>8836.2145</x:v>
@@ -3742,7 +3742,7 @@
         <x:v>33871.07</x:v>
       </x:c>
       <x:c r="D193" s="6" t="n">
-        <x:v>737.35</x:v>
+        <x:v>737.35283</x:v>
       </x:c>
       <x:c r="E193" s="6" t="n">
         <x:v>8836.2117</x:v>
@@ -3805,7 +3805,7 @@
         <x:v>32342.06</x:v>
       </x:c>
       <x:c r="D196" s="6" t="n">
-        <x:v>1187.79401</x:v>
+        <x:v>1187.7975</x:v>
       </x:c>
       <x:c r="E196" s="6" t="n">
         <x:v>9494.3606</x:v>
@@ -3819,7 +3819,7 @@
         <x:v>63574.04</x:v>
       </x:c>
       <x:c r="D197" s="6" t="n">
-        <x:v>1055.92839</x:v>
+        <x:v>1055.93168</x:v>
       </x:c>
       <x:c r="E197" s="6" t="n">
         <x:v>9494.3582</x:v>
@@ -3833,7 +3833,7 @@
         <x:v>79671.94</x:v>
       </x:c>
       <x:c r="D198" s="6" t="n">
-        <x:v>950.43589</x:v>
+        <x:v>950.43902</x:v>
       </x:c>
       <x:c r="E198" s="6" t="n">
         <x:v>9494.3584</x:v>
@@ -3847,7 +3847,7 @@
         <x:v>77722.62</x:v>
       </x:c>
       <x:c r="D199" s="6" t="n">
-        <x:v>864.12385</x:v>
+        <x:v>864.12684</x:v>
       </x:c>
       <x:c r="E199" s="6" t="n">
         <x:v>9494.3656</x:v>
@@ -3910,7 +3910,7 @@
         <x:v>32342.06</x:v>
       </x:c>
       <x:c r="D202" s="6" t="n">
-        <x:v>1187.79401</x:v>
+        <x:v>1187.7975</x:v>
       </x:c>
       <x:c r="E202" s="6" t="n">
         <x:v>9494.3606</x:v>
@@ -3924,7 +3924,7 @@
         <x:v>63574.04</x:v>
       </x:c>
       <x:c r="D203" s="6" t="n">
-        <x:v>1055.92839</x:v>
+        <x:v>1055.93168</x:v>
       </x:c>
       <x:c r="E203" s="6" t="n">
         <x:v>9494.3582</x:v>
@@ -3938,7 +3938,7 @@
         <x:v>79671.94</x:v>
       </x:c>
       <x:c r="D204" s="6" t="n">
-        <x:v>950.43589</x:v>
+        <x:v>950.43902</x:v>
       </x:c>
       <x:c r="E204" s="6" t="n">
         <x:v>9494.3584</x:v>
@@ -3952,7 +3952,7 @@
         <x:v>77722.62</x:v>
       </x:c>
       <x:c r="D205" s="6" t="n">
-        <x:v>864.12385</x:v>
+        <x:v>864.12684</x:v>
       </x:c>
       <x:c r="E205" s="6" t="n">
         <x:v>9494.3656</x:v>
@@ -4015,7 +4015,7 @@
         <x:v>18034.19</x:v>
       </x:c>
       <x:c r="D208" s="6" t="n">
-        <x:v>1131.7752</x:v>
+        <x:v>1131.77864</x:v>
       </x:c>
       <x:c r="E208" s="6" t="n">
         <x:v>9046.2246</x:v>
@@ -4029,7 +4029,7 @@
         <x:v>41865.63</x:v>
       </x:c>
       <x:c r="D209" s="6" t="n">
-        <x:v>1006.13389</x:v>
+        <x:v>1006.13713</x:v>
       </x:c>
       <x:c r="E209" s="6" t="n">
         <x:v>9046.2286</x:v>
@@ -4043,7 +4043,7 @@
         <x:v>88389.85</x:v>
       </x:c>
       <x:c r="D210" s="6" t="n">
-        <x:v>905.62084</x:v>
+        <x:v>905.62393</x:v>
       </x:c>
       <x:c r="E210" s="6" t="n">
         <x:v>9046.2313</x:v>
@@ -4057,7 +4057,7 @@
         <x:v>87628.28</x:v>
       </x:c>
       <x:c r="D211" s="6" t="n">
-        <x:v>823.38288</x:v>
+        <x:v>823.38584</x:v>
       </x:c>
       <x:c r="E211" s="6" t="n">
         <x:v>9046.2301</x:v>
@@ -4071,7 +4071,7 @@
         <x:v>20111.5</x:v>
       </x:c>
       <x:c r="D212" s="6" t="n">
-        <x:v>754.85126</x:v>
+        <x:v>754.85411</x:v>
       </x:c>
       <x:c r="E212" s="6" t="n">
         <x:v>9046.2309</x:v>
@@ -4134,7 +4134,7 @@
         <x:v>18034.19</x:v>
       </x:c>
       <x:c r="D215" s="6" t="n">
-        <x:v>1131.7752</x:v>
+        <x:v>1131.77864</x:v>
       </x:c>
       <x:c r="E215" s="6" t="n">
         <x:v>9046.2246</x:v>
@@ -4148,7 +4148,7 @@
         <x:v>41865.63</x:v>
       </x:c>
       <x:c r="D216" s="6" t="n">
-        <x:v>1006.13389</x:v>
+        <x:v>1006.13713</x:v>
       </x:c>
       <x:c r="E216" s="6" t="n">
         <x:v>9046.2286</x:v>
@@ -4162,7 +4162,7 @@
         <x:v>88389.85</x:v>
       </x:c>
       <x:c r="D217" s="6" t="n">
-        <x:v>905.62084</x:v>
+        <x:v>905.62393</x:v>
       </x:c>
       <x:c r="E217" s="6" t="n">
         <x:v>9046.2313</x:v>
@@ -4176,7 +4176,7 @@
         <x:v>87628.28</x:v>
       </x:c>
       <x:c r="D218" s="6" t="n">
-        <x:v>823.38288</x:v>
+        <x:v>823.38584</x:v>
       </x:c>
       <x:c r="E218" s="6" t="n">
         <x:v>9046.2301</x:v>
@@ -4190,7 +4190,7 @@
         <x:v>20111.5</x:v>
       </x:c>
       <x:c r="D219" s="6" t="n">
-        <x:v>754.85126</x:v>
+        <x:v>754.85411</x:v>
       </x:c>
       <x:c r="E219" s="6" t="n">
         <x:v>9046.2309</x:v>
@@ -4253,7 +4253,7 @@
         <x:v>12081.25</x:v>
       </x:c>
       <x:c r="D222" s="6" t="n">
-        <x:v>1092.26337</x:v>
+        <x:v>1092.26681</x:v>
       </x:c>
       <x:c r="E222" s="6" t="n">
         <x:v>8730.1167</x:v>
@@ -4267,7 +4267,7 @@
         <x:v>26199.16</x:v>
       </x:c>
       <x:c r="D223" s="6" t="n">
-        <x:v>971.01224</x:v>
+        <x:v>971.0155</x:v>
       </x:c>
       <x:c r="E223" s="6" t="n">
         <x:v>8730.1255</x:v>
@@ -4281,7 +4281,7 @@
         <x:v>59558.66</x:v>
       </x:c>
       <x:c r="D224" s="6" t="n">
-        <x:v>874.01134</x:v>
+        <x:v>874.01444</x:v>
       </x:c>
       <x:c r="E224" s="6" t="n">
         <x:v>8730.1312</x:v>
@@ -4295,7 +4295,7 @@
         <x:v>81044.35</x:v>
       </x:c>
       <x:c r="D225" s="6" t="n">
-        <x:v>794.64698</x:v>
+        <x:v>794.64995</x:v>
       </x:c>
       <x:c r="E225" s="6" t="n">
         <x:v>8730.136</x:v>
@@ -4309,7 +4309,7 @@
         <x:v>45803.06</x:v>
       </x:c>
       <x:c r="D226" s="6" t="n">
-        <x:v>728.51</x:v>
+        <x:v>728.51288</x:v>
       </x:c>
       <x:c r="E226" s="6" t="n">
         <x:v>8730.1381</x:v>
@@ -4323,7 +4323,7 @@
         <x:v>14626.55</x:v>
       </x:c>
       <x:c r="D227" s="6" t="n">
-        <x:v>672.54793</x:v>
+        <x:v>672.55072</x:v>
       </x:c>
       <x:c r="E227" s="6" t="n">
         <x:v>8730.1285</x:v>
@@ -4386,7 +4386,7 @@
         <x:v>12081.25</x:v>
       </x:c>
       <x:c r="D230" s="6" t="n">
-        <x:v>1092.26337</x:v>
+        <x:v>1092.26681</x:v>
       </x:c>
       <x:c r="E230" s="6" t="n">
         <x:v>8730.1167</x:v>
@@ -4400,7 +4400,7 @@
         <x:v>26199.16</x:v>
       </x:c>
       <x:c r="D231" s="6" t="n">
-        <x:v>971.01224</x:v>
+        <x:v>971.0155</x:v>
       </x:c>
       <x:c r="E231" s="6" t="n">
         <x:v>8730.1255</x:v>
@@ -4414,7 +4414,7 @@
         <x:v>59558.66</x:v>
       </x:c>
       <x:c r="D232" s="6" t="n">
-        <x:v>874.01134</x:v>
+        <x:v>874.01444</x:v>
       </x:c>
       <x:c r="E232" s="6" t="n">
         <x:v>8730.1312</x:v>
@@ -4428,7 +4428,7 @@
         <x:v>81044.35</x:v>
       </x:c>
       <x:c r="D233" s="6" t="n">
-        <x:v>794.64698</x:v>
+        <x:v>794.64995</x:v>
       </x:c>
       <x:c r="E233" s="6" t="n">
         <x:v>8730.136</x:v>
@@ -4442,7 +4442,7 @@
         <x:v>45803.06</x:v>
       </x:c>
       <x:c r="D234" s="6" t="n">
-        <x:v>728.51</x:v>
+        <x:v>728.51288</x:v>
       </x:c>
       <x:c r="E234" s="6" t="n">
         <x:v>8730.1381</x:v>
@@ -4456,7 +4456,7 @@
         <x:v>14626.55</x:v>
       </x:c>
       <x:c r="D235" s="6" t="n">
-        <x:v>672.54793</x:v>
+        <x:v>672.55072</x:v>
       </x:c>
       <x:c r="E235" s="6" t="n">
         <x:v>8730.1285</x:v>
@@ -4519,7 +4519,7 @@
         <x:v>9470.14</x:v>
       </x:c>
       <x:c r="D238" s="6" t="n">
-        <x:v>1121.39903</x:v>
+        <x:v>1121.40251</x:v>
       </x:c>
       <x:c r="E238" s="6" t="n">
         <x:v>8963.2076</x:v>
@@ -4533,7 +4533,7 @@
         <x:v>22355.4</x:v>
       </x:c>
       <x:c r="D239" s="6" t="n">
-        <x:v>996.91061</x:v>
+        <x:v>996.9139</x:v>
       </x:c>
       <x:c r="E239" s="6" t="n">
         <x:v>8963.2169</x:v>
@@ -4547,7 +4547,7 @@
         <x:v>53420.78</x:v>
       </x:c>
       <x:c r="D240" s="6" t="n">
-        <x:v>897.31987</x:v>
+        <x:v>897.32301</x:v>
       </x:c>
       <x:c r="E240" s="6" t="n">
         <x:v>8963.2271</x:v>
@@ -4561,7 +4561,7 @@
         <x:v>67791.8</x:v>
       </x:c>
       <x:c r="D241" s="6" t="n">
-        <x:v>815.83654</x:v>
+        <x:v>815.83955</x:v>
       </x:c>
       <x:c r="E241" s="6" t="n">
         <x:v>8963.2241</x:v>
@@ -4575,7 +4575,7 @@
         <x:v>44885.84</x:v>
       </x:c>
       <x:c r="D242" s="6" t="n">
-        <x:v>747.93376</x:v>
+        <x:v>747.93667</x:v>
       </x:c>
       <x:c r="E242" s="6" t="n">
         <x:v>8963.2262</x:v>
@@ -4589,7 +4589,7 @@
         <x:v>12934.69</x:v>
       </x:c>
       <x:c r="D243" s="6" t="n">
-        <x:v>690.47758</x:v>
+        <x:v>690.48039</x:v>
       </x:c>
       <x:c r="E243" s="6" t="n">
         <x:v>8963.2306</x:v>
@@ -4652,7 +4652,7 @@
         <x:v>9470.14</x:v>
       </x:c>
       <x:c r="D246" s="6" t="n">
-        <x:v>1121.39903</x:v>
+        <x:v>1121.40251</x:v>
       </x:c>
       <x:c r="E246" s="6" t="n">
         <x:v>8963.2076</x:v>
@@ -4666,7 +4666,7 @@
         <x:v>22355.4</x:v>
       </x:c>
       <x:c r="D247" s="6" t="n">
-        <x:v>996.91061</x:v>
+        <x:v>996.9139</x:v>
       </x:c>
       <x:c r="E247" s="6" t="n">
         <x:v>8963.2169</x:v>
@@ -4680,7 +4680,7 @@
         <x:v>53420.78</x:v>
       </x:c>
       <x:c r="D248" s="6" t="n">
-        <x:v>897.31987</x:v>
+        <x:v>897.32301</x:v>
       </x:c>
       <x:c r="E248" s="6" t="n">
         <x:v>8963.2271</x:v>
@@ -4694,7 +4694,7 @@
         <x:v>67791.8</x:v>
       </x:c>
       <x:c r="D249" s="6" t="n">
-        <x:v>815.83654</x:v>
+        <x:v>815.83955</x:v>
       </x:c>
       <x:c r="E249" s="6" t="n">
         <x:v>8963.2241</x:v>
@@ -4708,7 +4708,7 @@
         <x:v>44885.84</x:v>
       </x:c>
       <x:c r="D250" s="6" t="n">
-        <x:v>747.93376</x:v>
+        <x:v>747.93667</x:v>
       </x:c>
       <x:c r="E250" s="6" t="n">
         <x:v>8963.2262</x:v>
@@ -4722,7 +4722,7 @@
         <x:v>12934.69</x:v>
       </x:c>
       <x:c r="D251" s="6" t="n">
-        <x:v>690.47758</x:v>
+        <x:v>690.48039</x:v>
       </x:c>
       <x:c r="E251" s="6" t="n">
         <x:v>8963.2306</x:v>
@@ -4785,7 +4785,7 @@
         <x:v>10712.98</x:v>
       </x:c>
       <x:c r="D254" s="6" t="n">
-        <x:v>1075.75783</x:v>
+        <x:v>1075.76131</x:v>
       </x:c>
       <x:c r="E254" s="6" t="n">
         <x:v>8598.0778</x:v>
@@ -4799,7 +4799,7 @@
         <x:v>24882.9</x:v>
       </x:c>
       <x:c r="D255" s="6" t="n">
-        <x:v>956.34063</x:v>
+        <x:v>956.34393</x:v>
       </x:c>
       <x:c r="E255" s="6" t="n">
         <x:v>8598.0892</x:v>
@@ -4813,7 +4813,7 @@
         <x:v>55270.19</x:v>
       </x:c>
       <x:c r="D256" s="6" t="n">
-        <x:v>860.80688</x:v>
+        <x:v>860.81003</x:v>
       </x:c>
       <x:c r="E256" s="6" t="n">
         <x:v>8598.091</x:v>
@@ -4827,7 +4827,7 @@
         <x:v>62991.98</x:v>
       </x:c>
       <x:c r="D257" s="6" t="n">
-        <x:v>782.64291</x:v>
+        <x:v>782.64593</x:v>
       </x:c>
       <x:c r="E257" s="6" t="n">
         <x:v>8598.0898</x:v>
@@ -4841,7 +4841,7 @@
         <x:v>37125.47</x:v>
       </x:c>
       <x:c r="D258" s="6" t="n">
-        <x:v>717.50626</x:v>
+        <x:v>717.50918</x:v>
       </x:c>
       <x:c r="E258" s="6" t="n">
         <x:v>8598.0923</x:v>
@@ -4855,7 +4855,7 @@
         <x:v>12488.55</x:v>
       </x:c>
       <x:c r="D259" s="6" t="n">
-        <x:v>662.39063</x:v>
+        <x:v>662.39346</x:v>
       </x:c>
       <x:c r="E259" s="6" t="n">
         <x:v>8598.0846</x:v>
@@ -4918,7 +4918,7 @@
         <x:v>10712.98</x:v>
       </x:c>
       <x:c r="D262" s="6" t="n">
-        <x:v>1075.75783</x:v>
+        <x:v>1075.76131</x:v>
       </x:c>
       <x:c r="E262" s="6" t="n">
         <x:v>8598.0778</x:v>
@@ -4932,7 +4932,7 @@
         <x:v>24882.9</x:v>
       </x:c>
       <x:c r="D263" s="6" t="n">
-        <x:v>956.34063</x:v>
+        <x:v>956.34393</x:v>
       </x:c>
       <x:c r="E263" s="6" t="n">
         <x:v>8598.0892</x:v>
@@ -4946,7 +4946,7 @@
         <x:v>55270.19</x:v>
       </x:c>
       <x:c r="D264" s="6" t="n">
-        <x:v>860.80688</x:v>
+        <x:v>860.81003</x:v>
       </x:c>
       <x:c r="E264" s="6" t="n">
         <x:v>8598.091</x:v>
@@ -4960,7 +4960,7 @@
         <x:v>62991.98</x:v>
       </x:c>
       <x:c r="D265" s="6" t="n">
-        <x:v>782.64291</x:v>
+        <x:v>782.64593</x:v>
       </x:c>
       <x:c r="E265" s="6" t="n">
         <x:v>8598.0898</x:v>
@@ -4974,7 +4974,7 @@
         <x:v>37125.47</x:v>
       </x:c>
       <x:c r="D266" s="6" t="n">
-        <x:v>717.50626</x:v>
+        <x:v>717.50918</x:v>
       </x:c>
       <x:c r="E266" s="6" t="n">
         <x:v>8598.0923</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>12488.55</x:v>
       </x:c>
       <x:c r="D267" s="6" t="n">
-        <x:v>662.39063</x:v>
+        <x:v>662.39346</x:v>
       </x:c>
       <x:c r="E267" s="6" t="n">
         <x:v>8598.0846</x:v>
@@ -5051,7 +5051,7 @@
         <x:v>8233.56</x:v>
       </x:c>
       <x:c r="D270" s="6" t="n">
-        <x:v>1092.26351</x:v>
+        <x:v>1092.26698</x:v>
       </x:c>
       <x:c r="E270" s="6" t="n">
         <x:v>8730.1213</x:v>
@@ -5065,7 +5065,7 @@
         <x:v>18282.7</x:v>
       </x:c>
       <x:c r="D271" s="6" t="n">
-        <x:v>971.01236</x:v>
+        <x:v>971.01564</x:v>
       </x:c>
       <x:c r="E271" s="6" t="n">
         <x:v>8730.1294</x:v>
@@ -5079,7 +5079,7 @@
         <x:v>49414.1</x:v>
       </x:c>
       <x:c r="D272" s="6" t="n">
-        <x:v>874.01145</x:v>
+        <x:v>874.01458</x:v>
       </x:c>
       <x:c r="E272" s="6" t="n">
         <x:v>8730.1325</x:v>
@@ -5093,7 +5093,7 @@
         <x:v>65409.16</x:v>
       </x:c>
       <x:c r="D273" s="6" t="n">
-        <x:v>794.64706</x:v>
+        <x:v>794.65007</x:v>
       </x:c>
       <x:c r="E273" s="6" t="n">
         <x:v>8730.1349</x:v>
@@ -5107,7 +5107,7 @@
         <x:v>40994.28</x:v>
       </x:c>
       <x:c r="D274" s="6" t="n">
-        <x:v>728.51007</x:v>
+        <x:v>728.51297</x:v>
       </x:c>
       <x:c r="E274" s="6" t="n">
         <x:v>8730.1394</x:v>
@@ -5121,7 +5121,7 @@
         <x:v>13308.16</x:v>
       </x:c>
       <x:c r="D275" s="6" t="n">
-        <x:v>672.548</x:v>
+        <x:v>672.55082</x:v>
       </x:c>
       <x:c r="E275" s="6" t="n">
         <x:v>8730.13</x:v>
@@ -5184,7 +5184,7 @@
         <x:v>16099.49</x:v>
       </x:c>
       <x:c r="D278" s="6" t="n">
-        <x:v>971.01266</x:v>
+        <x:v>971.01594</x:v>
       </x:c>
       <x:c r="E278" s="6" t="n">
         <x:v>8730.1362</x:v>
@@ -5198,7 +5198,7 @@
         <x:v>42603.41</x:v>
       </x:c>
       <x:c r="D279" s="6" t="n">
-        <x:v>874.01172</x:v>
+        <x:v>874.01485</x:v>
       </x:c>
       <x:c r="E279" s="6" t="n">
         <x:v>8730.1397</x:v>
@@ -5212,7 +5212,7 @@
         <x:v>51914.01</x:v>
       </x:c>
       <x:c r="D280" s="6" t="n">
-        <x:v>794.6473</x:v>
+        <x:v>794.65031</x:v>
       </x:c>
       <x:c r="E280" s="6" t="n">
         <x:v>8730.1359</x:v>
@@ -5226,7 +5226,7 @@
         <x:v>40539.17</x:v>
       </x:c>
       <x:c r="D281" s="6" t="n">
-        <x:v>728.5103</x:v>
+        <x:v>728.5132</x:v>
       </x:c>
       <x:c r="E281" s="6" t="n">
         <x:v>8730.1426</x:v>
@@ -5240,7 +5240,7 @@
         <x:v>11961.15</x:v>
       </x:c>
       <x:c r="D282" s="6" t="n">
-        <x:v>672.54821</x:v>
+        <x:v>672.55103</x:v>
       </x:c>
       <x:c r="E282" s="6" t="n">
         <x:v>8730.1337</x:v>
@@ -5303,7 +5303,7 @@
         <x:v>16099.49</x:v>
       </x:c>
       <x:c r="D285" s="6" t="n">
-        <x:v>971.01266</x:v>
+        <x:v>971.01594</x:v>
       </x:c>
       <x:c r="E285" s="6" t="n">
         <x:v>8730.1362</x:v>
@@ -5317,7 +5317,7 @@
         <x:v>42603.41</x:v>
       </x:c>
       <x:c r="D286" s="6" t="n">
-        <x:v>874.01172</x:v>
+        <x:v>874.01485</x:v>
       </x:c>
       <x:c r="E286" s="6" t="n">
         <x:v>8730.1397</x:v>
@@ -5331,7 +5331,7 @@
         <x:v>51914.01</x:v>
       </x:c>
       <x:c r="D287" s="6" t="n">
-        <x:v>794.6473</x:v>
+        <x:v>794.65031</x:v>
       </x:c>
       <x:c r="E287" s="6" t="n">
         <x:v>8730.1359</x:v>
@@ -5345,7 +5345,7 @@
         <x:v>40539.17</x:v>
       </x:c>
       <x:c r="D288" s="6" t="n">
-        <x:v>728.5103</x:v>
+        <x:v>728.5132</x:v>
       </x:c>
       <x:c r="E288" s="6" t="n">
         <x:v>8730.1426</x:v>
@@ -5359,7 +5359,7 @@
         <x:v>11961.15</x:v>
       </x:c>
       <x:c r="D289" s="6" t="n">
-        <x:v>672.54821</x:v>
+        <x:v>672.55103</x:v>
       </x:c>
       <x:c r="E289" s="6" t="n">
         <x:v>8730.1337</x:v>
@@ -5422,7 +5422,7 @@
         <x:v>16210.85</x:v>
       </x:c>
       <x:c r="D292" s="6" t="n">
-        <x:v>1135.28814</x:v>
+        <x:v>1135.29158</x:v>
       </x:c>
       <x:c r="E292" s="6" t="n">
         <x:v>9074.3285</x:v>
@@ -5436,7 +5436,7 @@
         <x:v>35477.77</x:v>
       </x:c>
       <x:c r="D293" s="6" t="n">
-        <x:v>1009.25649</x:v>
+        <x:v>1009.25974</x:v>
       </x:c>
       <x:c r="E293" s="6" t="n">
         <x:v>9074.3336</x:v>
@@ -5450,7 +5450,7 @@
         <x:v>60024.72</x:v>
       </x:c>
       <x:c r="D294" s="6" t="n">
-        <x:v>908.43118</x:v>
+        <x:v>908.43428</x:v>
       </x:c>
       <x:c r="E294" s="6" t="n">
         <x:v>9074.3365</x:v>
@@ -5464,7 +5464,7 @@
         <x:v>33193.78</x:v>
       </x:c>
       <x:c r="D295" s="6" t="n">
-        <x:v>825.93774</x:v>
+        <x:v>825.94071</x:v>
       </x:c>
       <x:c r="E295" s="6" t="n">
         <x:v>9074.3334</x:v>
@@ -5527,7 +5527,7 @@
         <x:v>16210.85</x:v>
       </x:c>
       <x:c r="D298" s="6" t="n">
-        <x:v>1135.28814</x:v>
+        <x:v>1135.29158</x:v>
       </x:c>
       <x:c r="E298" s="6" t="n">
         <x:v>9074.3285</x:v>
@@ -5541,7 +5541,7 @@
         <x:v>35477.77</x:v>
       </x:c>
       <x:c r="D299" s="6" t="n">
-        <x:v>1009.25649</x:v>
+        <x:v>1009.25974</x:v>
       </x:c>
       <x:c r="E299" s="6" t="n">
         <x:v>9074.3336</x:v>
@@ -5555,7 +5555,7 @@
         <x:v>60024.72</x:v>
       </x:c>
       <x:c r="D300" s="6" t="n">
-        <x:v>908.43118</x:v>
+        <x:v>908.43428</x:v>
       </x:c>
       <x:c r="E300" s="6" t="n">
         <x:v>9074.3365</x:v>
@@ -5569,7 +5569,7 @@
         <x:v>33193.78</x:v>
       </x:c>
       <x:c r="D301" s="6" t="n">
-        <x:v>825.93774</x:v>
+        <x:v>825.94071</x:v>
       </x:c>
       <x:c r="E301" s="6" t="n">
         <x:v>9074.3334</x:v>
@@ -5632,7 +5632,7 @@
         <x:v>16997.14</x:v>
       </x:c>
       <x:c r="D304" s="6" t="n">
-        <x:v>996.79963</x:v>
+        <x:v>996.80295</x:v>
       </x:c>
       <x:c r="E304" s="6" t="n">
         <x:v>8962.2173</x:v>
@@ -5646,7 +5646,7 @@
         <x:v>37407.42</x:v>
       </x:c>
       <x:c r="D305" s="6" t="n">
-        <x:v>897.21998</x:v>
+        <x:v>897.22315</x:v>
       </x:c>
       <x:c r="E305" s="6" t="n">
         <x:v>8962.2235</x:v>
@@ -5660,7 +5660,7 @@
         <x:v>53260</x:v>
       </x:c>
       <x:c r="D306" s="6" t="n">
-        <x:v>815.74573</x:v>
+        <x:v>815.74877</x:v>
       </x:c>
       <x:c r="E306" s="6" t="n">
         <x:v>8962.2265</x:v>
@@ -5674,7 +5674,7 @@
         <x:v>39588.49</x:v>
       </x:c>
       <x:c r="D307" s="6" t="n">
-        <x:v>747.85052</x:v>
+        <x:v>747.85346</x:v>
       </x:c>
       <x:c r="E307" s="6" t="n">
         <x:v>8962.2272</x:v>
@@ -5688,7 +5688,7 @@
         <x:v>11444.85</x:v>
       </x:c>
       <x:c r="D308" s="6" t="n">
-        <x:v>690.40072</x:v>
+        <x:v>690.40357</x:v>
       </x:c>
       <x:c r="E308" s="6" t="n">
         <x:v>8962.2291</x:v>
@@ -5751,7 +5751,7 @@
         <x:v>8103.53</x:v>
       </x:c>
       <x:c r="D311" s="6" t="n">
-        <x:v>1121.27494</x:v>
+        <x:v>1121.27846</x:v>
       </x:c>
       <x:c r="E311" s="6" t="n">
         <x:v>8962.2084</x:v>
@@ -5765,7 +5765,7 @@
         <x:v>16362.24</x:v>
       </x:c>
       <x:c r="D312" s="6" t="n">
-        <x:v>996.8003</x:v>
+        <x:v>996.80362</x:v>
       </x:c>
       <x:c r="E312" s="6" t="n">
         <x:v>8962.2199</x:v>
@@ -5779,7 +5779,7 @@
         <x:v>30708.37</x:v>
       </x:c>
       <x:c r="D313" s="6" t="n">
-        <x:v>897.22059</x:v>
+        <x:v>897.22376</x:v>
       </x:c>
       <x:c r="E313" s="6" t="n">
         <x:v>8962.2269</x:v>
@@ -5793,7 +5793,7 @@
         <x:v>47732.25</x:v>
       </x:c>
       <x:c r="D314" s="6" t="n">
-        <x:v>815.74628</x:v>
+        <x:v>815.74932</x:v>
       </x:c>
       <x:c r="E314" s="6" t="n">
         <x:v>8962.225</x:v>
@@ -5807,7 +5807,7 @@
         <x:v>39630</x:v>
       </x:c>
       <x:c r="D315" s="6" t="n">
-        <x:v>747.85102</x:v>
+        <x:v>747.85396</x:v>
       </x:c>
       <x:c r="E315" s="6" t="n">
         <x:v>8962.2361</x:v>
@@ -5821,7 +5821,7 @@
         <x:v>12554.32</x:v>
       </x:c>
       <x:c r="D316" s="6" t="n">
-        <x:v>690.40118</x:v>
+        <x:v>690.40403</x:v>
       </x:c>
       <x:c r="E316" s="6" t="n">
         <x:v>8962.2319</x:v>
@@ -5884,7 +5884,7 @@
         <x:v>8103.53</x:v>
       </x:c>
       <x:c r="D319" s="6" t="n">
-        <x:v>1121.27494</x:v>
+        <x:v>1121.27846</x:v>
       </x:c>
       <x:c r="E319" s="6" t="n">
         <x:v>8962.2084</x:v>
@@ -5898,7 +5898,7 @@
         <x:v>16362.24</x:v>
       </x:c>
       <x:c r="D320" s="6" t="n">
-        <x:v>996.8003</x:v>
+        <x:v>996.80362</x:v>
       </x:c>
       <x:c r="E320" s="6" t="n">
         <x:v>8962.2199</x:v>
@@ -5912,7 +5912,7 @@
         <x:v>30708.37</x:v>
       </x:c>
       <x:c r="D321" s="6" t="n">
-        <x:v>897.22059</x:v>
+        <x:v>897.22376</x:v>
       </x:c>
       <x:c r="E321" s="6" t="n">
         <x:v>8962.2269</x:v>
@@ -5926,7 +5926,7 @@
         <x:v>47732.25</x:v>
       </x:c>
       <x:c r="D322" s="6" t="n">
-        <x:v>815.74628</x:v>
+        <x:v>815.74932</x:v>
       </x:c>
       <x:c r="E322" s="6" t="n">
         <x:v>8962.225</x:v>
@@ -5940,7 +5940,7 @@
         <x:v>39630</x:v>
       </x:c>
       <x:c r="D323" s="6" t="n">
-        <x:v>747.85102</x:v>
+        <x:v>747.85396</x:v>
       </x:c>
       <x:c r="E323" s="6" t="n">
         <x:v>8962.2361</x:v>
@@ -5954,7 +5954,7 @@
         <x:v>12554.32</x:v>
       </x:c>
       <x:c r="D324" s="6" t="n">
-        <x:v>690.40118</x:v>
+        <x:v>690.40403</x:v>
       </x:c>
       <x:c r="E324" s="6" t="n">
         <x:v>8962.2319</x:v>
@@ -6017,7 +6017,7 @@
         <x:v>16511.66</x:v>
       </x:c>
       <x:c r="D327" s="6" t="n">
-        <x:v>1134.15232</x:v>
+        <x:v>1134.15582</x:v>
       </x:c>
       <x:c r="E327" s="6" t="n">
         <x:v>9065.226</x:v>
@@ -6031,7 +6031,7 @@
         <x:v>24655.2</x:v>
       </x:c>
       <x:c r="D328" s="6" t="n">
-        <x:v>1008.24686</x:v>
+        <x:v>1008.25017</x:v>
       </x:c>
       <x:c r="E328" s="6" t="n">
         <x:v>9065.2239</x:v>
@@ -6045,7 +6045,7 @@
         <x:v>43876.69</x:v>
       </x:c>
       <x:c r="D329" s="6" t="n">
-        <x:v>907.5225</x:v>
+        <x:v>907.52566</x:v>
       </x:c>
       <x:c r="E329" s="6" t="n">
         <x:v>9065.2445</x:v>
@@ -6059,7 +6059,7 @@
         <x:v>37245.26</x:v>
       </x:c>
       <x:c r="D330" s="6" t="n">
-        <x:v>825.11166</x:v>
+        <x:v>825.11469</x:v>
       </x:c>
       <x:c r="E330" s="6" t="n">
         <x:v>9065.2518</x:v>
@@ -6122,7 +6122,7 @@
         <x:v>16511.66</x:v>
       </x:c>
       <x:c r="D333" s="6" t="n">
-        <x:v>1134.15232</x:v>
+        <x:v>1134.15582</x:v>
       </x:c>
       <x:c r="E333" s="6" t="n">
         <x:v>9065.226</x:v>
@@ -6136,7 +6136,7 @@
         <x:v>24655.2</x:v>
       </x:c>
       <x:c r="D334" s="6" t="n">
-        <x:v>1008.24686</x:v>
+        <x:v>1008.25017</x:v>
       </x:c>
       <x:c r="E334" s="6" t="n">
         <x:v>9065.2239</x:v>
@@ -6150,7 +6150,7 @@
         <x:v>43876.69</x:v>
       </x:c>
       <x:c r="D335" s="6" t="n">
-        <x:v>907.5225</x:v>
+        <x:v>907.52566</x:v>
       </x:c>
       <x:c r="E335" s="6" t="n">
         <x:v>9065.2445</x:v>
@@ -6164,7 +6164,7 @@
         <x:v>37245.26</x:v>
       </x:c>
       <x:c r="D336" s="6" t="n">
-        <x:v>825.11166</x:v>
+        <x:v>825.11469</x:v>
       </x:c>
       <x:c r="E336" s="6" t="n">
         <x:v>9065.2518</x:v>
@@ -6227,7 +6227,7 @@
         <x:v>18209.4</x:v>
       </x:c>
       <x:c r="D339" s="6" t="n">
-        <x:v>1161.41459</x:v>
+        <x:v>1161.41808</x:v>
       </x:c>
       <x:c r="E339" s="6" t="n">
         <x:v>9283.3317</x:v>
@@ -6241,7 +6241,7 @@
         <x:v>29535.81</x:v>
       </x:c>
       <x:c r="D340" s="6" t="n">
-        <x:v>1032.48001</x:v>
+        <x:v>1032.4833</x:v>
       </x:c>
       <x:c r="E340" s="6" t="n">
         <x:v>9283.3401</x:v>
@@ -6255,7 +6255,7 @@
         <x:v>36968.06</x:v>
       </x:c>
       <x:c r="D341" s="6" t="n">
-        <x:v>929.33235</x:v>
+        <x:v>929.33547</x:v>
       </x:c>
       <x:c r="E341" s="6" t="n">
         <x:v>9283.3521</x:v>
@@ -6269,7 +6269,7 @@
         <x:v>29543.11</x:v>
       </x:c>
       <x:c r="D342" s="6" t="n">
-        <x:v>844.9388</x:v>
+        <x:v>844.9418</x:v>
       </x:c>
       <x:c r="E342" s="6" t="n">
         <x:v>9283.3537</x:v>
@@ -6332,7 +6332,7 @@
         <x:v>18209.4</x:v>
       </x:c>
       <x:c r="D345" s="6" t="n">
-        <x:v>1161.41459</x:v>
+        <x:v>1161.41808</x:v>
       </x:c>
       <x:c r="E345" s="6" t="n">
         <x:v>9283.3317</x:v>
@@ -6346,7 +6346,7 @@
         <x:v>29535.81</x:v>
       </x:c>
       <x:c r="D346" s="6" t="n">
-        <x:v>1032.48001</x:v>
+        <x:v>1032.4833</x:v>
       </x:c>
       <x:c r="E346" s="6" t="n">
         <x:v>9283.3401</x:v>
@@ -6360,7 +6360,7 @@
         <x:v>36968.06</x:v>
       </x:c>
       <x:c r="D347" s="6" t="n">
-        <x:v>929.33235</x:v>
+        <x:v>929.33547</x:v>
       </x:c>
       <x:c r="E347" s="6" t="n">
         <x:v>9283.3521</x:v>
@@ -6374,7 +6374,7 @@
         <x:v>29543.11</x:v>
       </x:c>
       <x:c r="D348" s="6" t="n">
-        <x:v>844.9388</x:v>
+        <x:v>844.9418</x:v>
       </x:c>
       <x:c r="E348" s="6" t="n">
         <x:v>9283.3537</x:v>
@@ -6437,7 +6437,7 @@
         <x:v>14695.12</x:v>
       </x:c>
       <x:c r="D351" s="6" t="n">
-        <x:v>1187.79048</x:v>
+        <x:v>1187.794</x:v>
       </x:c>
       <x:c r="E351" s="6" t="n">
         <x:v>9494.3608</x:v>
@@ -6451,7 +6451,7 @@
         <x:v>24931.03</x:v>
       </x:c>
       <x:c r="D352" s="6" t="n">
-        <x:v>1055.92524</x:v>
+        <x:v>1055.92856</x:v>
       </x:c>
       <x:c r="E352" s="6" t="n">
         <x:v>9494.356</x:v>
@@ -6465,7 +6465,7 @@
         <x:v>42330.41</x:v>
       </x:c>
       <x:c r="D353" s="6" t="n">
-        <x:v>950.43305</x:v>
+        <x:v>950.43621</x:v>
       </x:c>
       <x:c r="E353" s="6" t="n">
         <x:v>9494.358</x:v>
@@ -6479,7 +6479,7 @@
         <x:v>33863.22</x:v>
       </x:c>
       <x:c r="D354" s="6" t="n">
-        <x:v>864.12127</x:v>
+        <x:v>864.12429</x:v>
       </x:c>
       <x:c r="E354" s="6" t="n">
         <x:v>9494.37</x:v>
@@ -6542,7 +6542,7 @@
         <x:v>33969.78</x:v>
       </x:c>
       <x:c r="D357" s="6" t="n">
-        <x:v>862.30801</x:v>
+        <x:v>862.3111</x:v>
       </x:c>
       <x:c r="E357" s="6" t="n">
         <x:v>8613.0747</x:v>
@@ -6556,7 +6556,7 @@
         <x:v>51988.89</x:v>
       </x:c>
       <x:c r="D358" s="6" t="n">
-        <x:v>784.00758</x:v>
+        <x:v>784.01054</x:v>
       </x:c>
       <x:c r="E358" s="6" t="n">
         <x:v>8613.0794</x:v>
@@ -6570,7 +6570,7 @@
         <x:v>22464.7</x:v>
       </x:c>
       <x:c r="D359" s="6" t="n">
-        <x:v>718.75722</x:v>
+        <x:v>718.76008</x:v>
       </x:c>
       <x:c r="E359" s="6" t="n">
         <x:v>8613.0779</x:v>
@@ -6633,7 +6633,7 @@
         <x:v>33969.78</x:v>
       </x:c>
       <x:c r="D362" s="6" t="n">
-        <x:v>862.30801</x:v>
+        <x:v>862.3111</x:v>
       </x:c>
       <x:c r="E362" s="6" t="n">
         <x:v>8613.0747</x:v>
@@ -6647,7 +6647,7 @@
         <x:v>51988.89</x:v>
       </x:c>
       <x:c r="D363" s="6" t="n">
-        <x:v>784.00758</x:v>
+        <x:v>784.01054</x:v>
       </x:c>
       <x:c r="E363" s="6" t="n">
         <x:v>8613.0794</x:v>
@@ -6661,7 +6661,7 @@
         <x:v>22464.7</x:v>
       </x:c>
       <x:c r="D364" s="6" t="n">
-        <x:v>718.75722</x:v>
+        <x:v>718.76008</x:v>
       </x:c>
       <x:c r="E364" s="6" t="n">
         <x:v>8613.0779</x:v>
@@ -6724,7 +6724,7 @@
         <x:v>12680.54</x:v>
       </x:c>
       <x:c r="D367" s="6" t="n">
-        <x:v>958.00742</x:v>
+        <x:v>958.01068</x:v>
       </x:c>
       <x:c r="E367" s="6" t="n">
         <x:v>8613.0706</x:v>
@@ -6738,7 +6738,7 @@
         <x:v>28538.87</x:v>
       </x:c>
       <x:c r="D368" s="6" t="n">
-        <x:v>862.307</x:v>
+        <x:v>862.31011</x:v>
       </x:c>
       <x:c r="E368" s="6" t="n">
         <x:v>8613.076</x:v>
@@ -6752,7 +6752,7 @@
         <x:v>41442.24</x:v>
       </x:c>
       <x:c r="D369" s="6" t="n">
-        <x:v>784.00666</x:v>
+        <x:v>784.00965</x:v>
       </x:c>
       <x:c r="E369" s="6" t="n">
         <x:v>8613.084</x:v>
@@ -6766,7 +6766,7 @@
         <x:v>19383.99</x:v>
       </x:c>
       <x:c r="D370" s="6" t="n">
-        <x:v>718.75636</x:v>
+        <x:v>718.75926</x:v>
       </x:c>
       <x:c r="E370" s="6" t="n">
         <x:v>8613.0841</x:v>
@@ -6829,7 +6829,7 @@
         <x:v>8513.34</x:v>
       </x:c>
       <x:c r="D373" s="6" t="n">
-        <x:v>1134.15165</x:v>
+        <x:v>1134.15518</x:v>
       </x:c>
       <x:c r="E373" s="6" t="n">
         <x:v>9065.2294</x:v>
@@ -6843,7 +6843,7 @@
         <x:v>13160.51</x:v>
       </x:c>
       <x:c r="D374" s="6" t="n">
-        <x:v>1008.24626</x:v>
+        <x:v>1008.2496</x:v>
       </x:c>
       <x:c r="E374" s="6" t="n">
         <x:v>9065.233</x:v>
@@ -6857,7 +6857,7 @@
         <x:v>28423.96</x:v>
       </x:c>
       <x:c r="D375" s="6" t="n">
-        <x:v>907.52195</x:v>
+        <x:v>907.52513</x:v>
       </x:c>
       <x:c r="E375" s="6" t="n">
         <x:v>9065.2426</x:v>
@@ -6871,7 +6871,7 @@
         <x:v>23012.92</x:v>
       </x:c>
       <x:c r="D376" s="6" t="n">
-        <x:v>825.11115</x:v>
+        <x:v>825.11421</x:v>
       </x:c>
       <x:c r="E376" s="6" t="n">
         <x:v>9065.2505</x:v>
@@ -6934,7 +6934,7 @@
         <x:v>22727.69</x:v>
       </x:c>
       <x:c r="D379" s="6" t="n">
-        <x:v>1008.13422</x:v>
+        <x:v>1008.13746</x:v>
       </x:c>
       <x:c r="E379" s="6" t="n">
         <x:v>9064.2329</x:v>
@@ -6948,7 +6948,7 @@
         <x:v>24783.66</x:v>
       </x:c>
       <x:c r="D380" s="6" t="n">
-        <x:v>907.42114</x:v>
+        <x:v>907.42423</x:v>
       </x:c>
       <x:c r="E380" s="6" t="n">
         <x:v>9064.2331</x:v>
@@ -6962,7 +6962,7 @@
         <x:v>24020.76</x:v>
       </x:c>
       <x:c r="D381" s="6" t="n">
-        <x:v>825.01952</x:v>
+        <x:v>825.02248</x:v>
       </x:c>
       <x:c r="E381" s="6" t="n">
         <x:v>9064.2402</x:v>
@@ -7025,7 +7025,7 @@
         <x:v>22727.69</x:v>
       </x:c>
       <x:c r="D384" s="6" t="n">
-        <x:v>1008.13422</x:v>
+        <x:v>1008.13746</x:v>
       </x:c>
       <x:c r="E384" s="6" t="n">
         <x:v>9064.2329</x:v>
@@ -7039,7 +7039,7 @@
         <x:v>24783.66</x:v>
       </x:c>
       <x:c r="D385" s="6" t="n">
-        <x:v>907.42114</x:v>
+        <x:v>907.42423</x:v>
       </x:c>
       <x:c r="E385" s="6" t="n">
         <x:v>9064.2331</x:v>
@@ -7053,7 +7053,7 @@
         <x:v>24020.76</x:v>
       </x:c>
       <x:c r="D386" s="6" t="n">
-        <x:v>825.01952</x:v>
+        <x:v>825.02248</x:v>
       </x:c>
       <x:c r="E386" s="6" t="n">
         <x:v>9064.2402</x:v>
@@ -7116,7 +7116,7 @@
         <x:v>17798.95</x:v>
       </x:c>
       <x:c r="D389" s="6" t="n">
-        <x:v>874.01119</x:v>
+        <x:v>874.01427</x:v>
       </x:c>
       <x:c r="E389" s="6" t="n">
         <x:v>8730.126</x:v>
@@ -7130,7 +7130,7 @@
         <x:v>32481.36</x:v>
       </x:c>
       <x:c r="D390" s="6" t="n">
-        <x:v>794.64685</x:v>
+        <x:v>794.6498</x:v>
       </x:c>
       <x:c r="E390" s="6" t="n">
         <x:v>8730.13</x:v>
@@ -7144,7 +7144,7 @@
         <x:v>28240.53</x:v>
       </x:c>
       <x:c r="D391" s="6" t="n">
-        <x:v>728.50988</x:v>
+        <x:v>728.51273</x:v>
       </x:c>
       <x:c r="E391" s="6" t="n">
         <x:v>8730.1273</x:v>
@@ -7207,7 +7207,7 @@
         <x:v>17798.95</x:v>
       </x:c>
       <x:c r="D394" s="6" t="n">
-        <x:v>874.01119</x:v>
+        <x:v>874.01427</x:v>
       </x:c>
       <x:c r="E394" s="6" t="n">
         <x:v>8730.126</x:v>
@@ -7221,7 +7221,7 @@
         <x:v>32481.36</x:v>
       </x:c>
       <x:c r="D395" s="6" t="n">
-        <x:v>794.64685</x:v>
+        <x:v>794.6498</x:v>
       </x:c>
       <x:c r="E395" s="6" t="n">
         <x:v>8730.13</x:v>
@@ -7235,7 +7235,7 @@
         <x:v>28240.53</x:v>
       </x:c>
       <x:c r="D396" s="6" t="n">
-        <x:v>728.50988</x:v>
+        <x:v>728.51273</x:v>
       </x:c>
       <x:c r="E396" s="6" t="n">
         <x:v>8730.1273</x:v>
@@ -7298,7 +7298,7 @@
         <x:v>21828.66</x:v>
       </x:c>
       <x:c r="D399" s="6" t="n">
-        <x:v>1010.13436</x:v>
+        <x:v>1010.13761</x:v>
       </x:c>
       <x:c r="E399" s="6" t="n">
         <x:v>9082.2481</x:v>
@@ -7312,7 +7312,7 @@
         <x:v>23416.47</x:v>
       </x:c>
       <x:c r="D400" s="6" t="n">
-        <x:v>909.22126</x:v>
+        <x:v>909.22435</x:v>
       </x:c>
       <x:c r="E400" s="6" t="n">
         <x:v>9082.2376</x:v>
@@ -7326,7 +7326,7 @@
         <x:v>22010.94</x:v>
       </x:c>
       <x:c r="D401" s="6" t="n">
-        <x:v>826.65599</x:v>
+        <x:v>826.65896</x:v>
       </x:c>
       <x:c r="E401" s="6" t="n">
         <x:v>9082.2482</x:v>
@@ -7389,7 +7389,7 @@
         <x:v>21828.66</x:v>
       </x:c>
       <x:c r="D404" s="6" t="n">
-        <x:v>1010.13436</x:v>
+        <x:v>1010.13761</x:v>
       </x:c>
       <x:c r="E404" s="6" t="n">
         <x:v>9082.2481</x:v>
@@ -7403,7 +7403,7 @@
         <x:v>23416.47</x:v>
       </x:c>
       <x:c r="D405" s="6" t="n">
-        <x:v>909.22126</x:v>
+        <x:v>909.22435</x:v>
       </x:c>
       <x:c r="E405" s="6" t="n">
         <x:v>9082.2376</x:v>
@@ -7417,7 +7417,7 @@
         <x:v>22010.94</x:v>
       </x:c>
       <x:c r="D406" s="6" t="n">
-        <x:v>826.65599</x:v>
+        <x:v>826.65896</x:v>
       </x:c>
       <x:c r="E406" s="6" t="n">
         <x:v>9082.2482</x:v>
@@ -7480,7 +7480,7 @@
         <x:v>27212.66</x:v>
       </x:c>
       <x:c r="D409" s="6" t="n">
-        <x:v>897.41918</x:v>
+        <x:v>897.42228</x:v>
       </x:c>
       <x:c r="E409" s="6" t="n">
         <x:v>8964.2279</x:v>
@@ -7494,7 +7494,7 @@
         <x:v>28082.06</x:v>
       </x:c>
       <x:c r="D410" s="6" t="n">
-        <x:v>815.92682</x:v>
+        <x:v>815.9298</x:v>
       </x:c>
       <x:c r="E410" s="6" t="n">
         <x:v>8964.2394</x:v>
@@ -7508,7 +7508,7 @@
         <x:v>16266.64</x:v>
       </x:c>
       <x:c r="D411" s="6" t="n">
-        <x:v>748.01653</x:v>
+        <x:v>748.0194</x:v>
       </x:c>
       <x:c r="E411" s="6" t="n">
         <x:v>8964.2286</x:v>
@@ -7571,7 +7571,7 @@
         <x:v>27212.66</x:v>
       </x:c>
       <x:c r="D414" s="6" t="n">
-        <x:v>897.41918</x:v>
+        <x:v>897.42228</x:v>
       </x:c>
       <x:c r="E414" s="6" t="n">
         <x:v>8964.2279</x:v>
@@ -7585,7 +7585,7 @@
         <x:v>28082.06</x:v>
       </x:c>
       <x:c r="D415" s="6" t="n">
-        <x:v>815.92682</x:v>
+        <x:v>815.9298</x:v>
       </x:c>
       <x:c r="E415" s="6" t="n">
         <x:v>8964.2394</x:v>
@@ -7599,7 +7599,7 @@
         <x:v>16266.64</x:v>
       </x:c>
       <x:c r="D416" s="6" t="n">
-        <x:v>748.01653</x:v>
+        <x:v>748.0194</x:v>
       </x:c>
       <x:c r="E416" s="6" t="n">
         <x:v>8964.2286</x:v>
@@ -7662,7 +7662,7 @@
         <x:v>23361.56</x:v>
       </x:c>
       <x:c r="D419" s="6" t="n">
-        <x:v>862.30734</x:v>
+        <x:v>862.31045</x:v>
       </x:c>
       <x:c r="E419" s="6" t="n">
         <x:v>8613.0763</x:v>
@@ -7676,7 +7676,7 @@
         <x:v>32253.09</x:v>
       </x:c>
       <x:c r="D420" s="6" t="n">
-        <x:v>784.00696</x:v>
+        <x:v>784.00995</x:v>
       </x:c>
       <x:c r="E420" s="6" t="n">
         <x:v>8613.096</x:v>
@@ -7690,7 +7690,7 @@
         <x:v>14282.27</x:v>
       </x:c>
       <x:c r="D421" s="6" t="n">
-        <x:v>718.75664</x:v>
+        <x:v>718.75954</x:v>
       </x:c>
       <x:c r="E421" s="6" t="n">
         <x:v>8613.0969</x:v>
@@ -7753,7 +7753,7 @@
         <x:v>23361.56</x:v>
       </x:c>
       <x:c r="D424" s="6" t="n">
-        <x:v>862.30734</x:v>
+        <x:v>862.31045</x:v>
       </x:c>
       <x:c r="E424" s="6" t="n">
         <x:v>8613.0763</x:v>
@@ -7767,7 +7767,7 @@
         <x:v>32253.09</x:v>
       </x:c>
       <x:c r="D425" s="6" t="n">
-        <x:v>784.00696</x:v>
+        <x:v>784.00995</x:v>
       </x:c>
       <x:c r="E425" s="6" t="n">
         <x:v>8613.096</x:v>
@@ -7781,7 +7781,7 @@
         <x:v>14282.27</x:v>
       </x:c>
       <x:c r="D426" s="6" t="n">
-        <x:v>718.75664</x:v>
+        <x:v>718.75954</x:v>
       </x:c>
       <x:c r="E426" s="6" t="n">
         <x:v>8613.0969</x:v>
@@ -7844,7 +7844,7 @@
         <x:v>7502.18</x:v>
       </x:c>
       <x:c r="D429" s="6" t="n">
-        <x:v>956.33992</x:v>
+        <x:v>956.34324</x:v>
       </x:c>
       <x:c r="E429" s="6" t="n">
         <x:v>8598.0826</x:v>
@@ -7858,7 +7858,7 @@
         <x:v>15183.98</x:v>
       </x:c>
       <x:c r="D430" s="6" t="n">
-        <x:v>860.80624</x:v>
+        <x:v>860.80942</x:v>
       </x:c>
       <x:c r="E430" s="6" t="n">
         <x:v>8598.0842</x:v>
@@ -7872,7 +7872,7 @@
         <x:v>20048.45</x:v>
       </x:c>
       <x:c r="D431" s="6" t="n">
-        <x:v>782.64232</x:v>
+        <x:v>782.64537</x:v>
       </x:c>
       <x:c r="E431" s="6" t="n">
         <x:v>8598.0865</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>13994.87</x:v>
       </x:c>
       <x:c r="D432" s="6" t="n">
-        <x:v>717.50571</x:v>
+        <x:v>717.50866</x:v>
       </x:c>
       <x:c r="E432" s="6" t="n">
         <x:v>8598.0902</x:v>
@@ -7900,7 +7900,7 @@
         <x:v>4704.54</x:v>
       </x:c>
       <x:c r="D433" s="6" t="n">
-        <x:v>662.39011</x:v>
+        <x:v>662.39298</x:v>
       </x:c>
       <x:c r="E433" s="6" t="n">
         <x:v>8598.0891</x:v>
@@ -7963,7 +7963,7 @@
         <x:v>7502.18</x:v>
       </x:c>
       <x:c r="D436" s="6" t="n">
-        <x:v>956.33992</x:v>
+        <x:v>956.34324</x:v>
       </x:c>
       <x:c r="E436" s="6" t="n">
         <x:v>8598.0826</x:v>
@@ -7977,7 +7977,7 @@
         <x:v>15183.98</x:v>
       </x:c>
       <x:c r="D437" s="6" t="n">
-        <x:v>860.80624</x:v>
+        <x:v>860.80942</x:v>
       </x:c>
       <x:c r="E437" s="6" t="n">
         <x:v>8598.0842</x:v>
@@ -7991,7 +7991,7 @@
         <x:v>20048.45</x:v>
       </x:c>
       <x:c r="D438" s="6" t="n">
-        <x:v>782.64232</x:v>
+        <x:v>782.64537</x:v>
       </x:c>
       <x:c r="E438" s="6" t="n">
         <x:v>8598.0865</x:v>
@@ -8005,7 +8005,7 @@
         <x:v>13994.87</x:v>
       </x:c>
       <x:c r="D439" s="6" t="n">
-        <x:v>717.50571</x:v>
+        <x:v>717.50866</x:v>
       </x:c>
       <x:c r="E439" s="6" t="n">
         <x:v>8598.0902</x:v>
@@ -8019,7 +8019,7 @@
         <x:v>4704.54</x:v>
       </x:c>
       <x:c r="D440" s="6" t="n">
-        <x:v>662.39011</x:v>
+        <x:v>662.39298</x:v>
       </x:c>
       <x:c r="E440" s="6" t="n">
         <x:v>8598.0891</x:v>
@@ -8082,7 +8082,7 @@
         <x:v>13219.65</x:v>
       </x:c>
       <x:c r="D443" s="6" t="n">
-        <x:v>1009.25646</x:v>
+        <x:v>1009.25971</x:v>
       </x:c>
       <x:c r="E443" s="6" t="n">
         <x:v>9074.3406</x:v>
@@ -8096,7 +8096,7 @@
         <x:v>25724.05</x:v>
       </x:c>
       <x:c r="D444" s="6" t="n">
-        <x:v>908.43115</x:v>
+        <x:v>908.43425</x:v>
       </x:c>
       <x:c r="E444" s="6" t="n">
         <x:v>9074.3347</x:v>
@@ -8110,7 +8110,7 @@
         <x:v>13390.64</x:v>
       </x:c>
       <x:c r="D445" s="6" t="n">
-        <x:v>825.93772</x:v>
+        <x:v>825.94069</x:v>
       </x:c>
       <x:c r="E445" s="6" t="n">
         <x:v>9074.3387</x:v>
@@ -8173,7 +8173,7 @@
         <x:v>6379.78</x:v>
       </x:c>
       <x:c r="D448" s="6" t="n">
-        <x:v>1121.27405</x:v>
+        <x:v>1121.2776</x:v>
       </x:c>
       <x:c r="E448" s="6" t="n">
         <x:v>8962.1975</x:v>
@@ -8187,7 +8187,7 @@
         <x:v>6432.26</x:v>
       </x:c>
       <x:c r="D449" s="6" t="n">
-        <x:v>996.7995</x:v>
+        <x:v>996.80286</x:v>
       </x:c>
       <x:c r="E449" s="6" t="n">
         <x:v>8962.2234</x:v>
@@ -8201,7 +8201,7 @@
         <x:v>14420.1</x:v>
       </x:c>
       <x:c r="D450" s="6" t="n">
-        <x:v>897.21986</x:v>
+        <x:v>897.22306</x:v>
       </x:c>
       <x:c r="E450" s="6" t="n">
         <x:v>8962.2284</x:v>
@@ -8215,7 +8215,7 @@
         <x:v>24643.78</x:v>
       </x:c>
       <x:c r="D451" s="6" t="n">
-        <x:v>815.74561</x:v>
+        <x:v>815.74869</x:v>
       </x:c>
       <x:c r="E451" s="6" t="n">
         <x:v>8962.227</x:v>
@@ -8278,7 +8278,7 @@
         <x:v>6379.78</x:v>
       </x:c>
       <x:c r="D454" s="6" t="n">
-        <x:v>1121.27405</x:v>
+        <x:v>1121.2776</x:v>
       </x:c>
       <x:c r="E454" s="6" t="n">
         <x:v>8962.1975</x:v>
@@ -8292,7 +8292,7 @@
         <x:v>6432.26</x:v>
       </x:c>
       <x:c r="D455" s="6" t="n">
-        <x:v>996.7995</x:v>
+        <x:v>996.80286</x:v>
       </x:c>
       <x:c r="E455" s="6" t="n">
         <x:v>8962.2234</x:v>
@@ -8306,7 +8306,7 @@
         <x:v>14420.1</x:v>
       </x:c>
       <x:c r="D456" s="6" t="n">
-        <x:v>897.21986</x:v>
+        <x:v>897.22306</x:v>
       </x:c>
       <x:c r="E456" s="6" t="n">
         <x:v>8962.2284</x:v>
@@ -8320,7 +8320,7 @@
         <x:v>24643.78</x:v>
       </x:c>
       <x:c r="D457" s="6" t="n">
-        <x:v>815.74561</x:v>
+        <x:v>815.74869</x:v>
       </x:c>
       <x:c r="E457" s="6" t="n">
         <x:v>8962.227</x:v>
@@ -8383,7 +8383,7 @@
         <x:v>8987.07</x:v>
       </x:c>
       <x:c r="D460" s="6" t="n">
-        <x:v>962.1092</x:v>
+        <x:v>962.11243</x:v>
       </x:c>
       <x:c r="E460" s="6" t="n">
         <x:v>8650.0015</x:v>
@@ -8397,7 +8397,7 @@
         <x:v>20230.18</x:v>
       </x:c>
       <x:c r="D461" s="6" t="n">
-        <x:v>865.9986</x:v>
+        <x:v>866.00169</x:v>
       </x:c>
       <x:c r="E461" s="6" t="n">
         <x:v>8649.9979</x:v>
@@ -8411,7 +8411,7 @@
         <x:v>22968.26</x:v>
       </x:c>
       <x:c r="D462" s="6" t="n">
-        <x:v>787.36266</x:v>
+        <x:v>787.36563</x:v>
       </x:c>
       <x:c r="E462" s="6" t="n">
         <x:v>8649.9966</x:v>
@@ -8474,7 +8474,7 @@
         <x:v>8987.07</x:v>
       </x:c>
       <x:c r="D465" s="6" t="n">
-        <x:v>962.1092</x:v>
+        <x:v>962.11243</x:v>
       </x:c>
       <x:c r="E465" s="6" t="n">
         <x:v>8650.0015</x:v>
@@ -8488,7 +8488,7 @@
         <x:v>20230.18</x:v>
       </x:c>
       <x:c r="D466" s="6" t="n">
-        <x:v>865.9986</x:v>
+        <x:v>866.00169</x:v>
       </x:c>
       <x:c r="E466" s="6" t="n">
         <x:v>8649.9979</x:v>
@@ -8502,7 +8502,7 @@
         <x:v>22968.26</x:v>
       </x:c>
       <x:c r="D467" s="6" t="n">
-        <x:v>787.36266</x:v>
+        <x:v>787.36563</x:v>
       </x:c>
       <x:c r="E467" s="6" t="n">
         <x:v>8649.9966</x:v>
@@ -8565,7 +8565,7 @@
         <x:v>4274.33</x:v>
       </x:c>
       <x:c r="D470" s="6" t="n">
-        <x:v>971.01153</x:v>
+        <x:v>971.01484</x:v>
       </x:c>
       <x:c r="E470" s="6" t="n">
         <x:v>8730.1343</x:v>
@@ -8579,7 +8579,7 @@
         <x:v>11947.12</x:v>
       </x:c>
       <x:c r="D471" s="6" t="n">
-        <x:v>874.01069</x:v>
+        <x:v>874.01385</x:v>
       </x:c>
       <x:c r="E471" s="6" t="n">
         <x:v>8730.1314</x:v>
@@ -8593,7 +8593,7 @@
         <x:v>12437.14</x:v>
       </x:c>
       <x:c r="D472" s="6" t="n">
-        <x:v>794.64636</x:v>
+        <x:v>794.6494</x:v>
       </x:c>
       <x:c r="E472" s="6" t="n">
         <x:v>8730.1427</x:v>
@@ -8607,7 +8607,7 @@
         <x:v>7983.79</x:v>
       </x:c>
       <x:c r="D473" s="6" t="n">
-        <x:v>728.50942</x:v>
+        <x:v>728.51236</x:v>
       </x:c>
       <x:c r="E473" s="6" t="n">
         <x:v>8730.1429</x:v>
@@ -8670,7 +8670,7 @@
         <x:v>4274.33</x:v>
       </x:c>
       <x:c r="D476" s="6" t="n">
-        <x:v>971.01153</x:v>
+        <x:v>971.01484</x:v>
       </x:c>
       <x:c r="E476" s="6" t="n">
         <x:v>8730.1343</x:v>
@@ -8684,7 +8684,7 @@
         <x:v>11947.12</x:v>
       </x:c>
       <x:c r="D477" s="6" t="n">
-        <x:v>874.01069</x:v>
+        <x:v>874.01385</x:v>
       </x:c>
       <x:c r="E477" s="6" t="n">
         <x:v>8730.1314</x:v>
@@ -8698,7 +8698,7 @@
         <x:v>12437.14</x:v>
       </x:c>
       <x:c r="D478" s="6" t="n">
-        <x:v>794.64636</x:v>
+        <x:v>794.6494</x:v>
       </x:c>
       <x:c r="E478" s="6" t="n">
         <x:v>8730.1427</x:v>
@@ -8712,7 +8712,7 @@
         <x:v>7983.79</x:v>
       </x:c>
       <x:c r="D479" s="6" t="n">
-        <x:v>728.50942</x:v>
+        <x:v>728.51236</x:v>
       </x:c>
       <x:c r="E479" s="6" t="n">
         <x:v>8730.1429</x:v>
@@ -8775,7 +8775,7 @@
         <x:v>8277.57</x:v>
       </x:c>
       <x:c r="D482" s="6" t="n">
-        <x:v>1008.13415</x:v>
+        <x:v>1008.13749</x:v>
       </x:c>
       <x:c r="E482" s="6" t="n">
         <x:v>9064.2527</x:v>
@@ -8789,7 +8789,7 @@
         <x:v>16506.03</x:v>
       </x:c>
       <x:c r="D483" s="6" t="n">
-        <x:v>907.42105</x:v>
+        <x:v>907.42423</x:v>
       </x:c>
       <x:c r="E483" s="6" t="n">
         <x:v>9064.2356</x:v>
@@ -8803,7 +8803,7 @@
         <x:v>9634.51</x:v>
       </x:c>
       <x:c r="D484" s="6" t="n">
-        <x:v>825.01943</x:v>
+        <x:v>825.02249</x:v>
       </x:c>
       <x:c r="E484" s="6" t="n">
         <x:v>9064.2446</x:v>
@@ -8866,7 +8866,7 @@
         <x:v>8277.57</x:v>
       </x:c>
       <x:c r="D487" s="6" t="n">
-        <x:v>1008.13415</x:v>
+        <x:v>1008.13749</x:v>
       </x:c>
       <x:c r="E487" s="6" t="n">
         <x:v>9064.2527</x:v>
@@ -8880,7 +8880,7 @@
         <x:v>16506.03</x:v>
       </x:c>
       <x:c r="D488" s="6" t="n">
-        <x:v>907.42105</x:v>
+        <x:v>907.42423</x:v>
       </x:c>
       <x:c r="E488" s="6" t="n">
         <x:v>9064.2356</x:v>
@@ -8894,7 +8894,7 @@
         <x:v>9634.51</x:v>
       </x:c>
       <x:c r="D489" s="6" t="n">
-        <x:v>825.01943</x:v>
+        <x:v>825.02249</x:v>
       </x:c>
       <x:c r="E489" s="6" t="n">
         <x:v>9064.2446</x:v>
@@ -8957,7 +8957,7 @@
         <x:v>5363.65</x:v>
       </x:c>
       <x:c r="D492" s="6" t="n">
-        <x:v>956.33992</x:v>
+        <x:v>956.34327</x:v>
       </x:c>
       <x:c r="E492" s="6" t="n">
         <x:v>8598.0758</x:v>
@@ -8971,7 +8971,7 @@
         <x:v>11808.27</x:v>
       </x:c>
       <x:c r="D493" s="6" t="n">
-        <x:v>860.80622</x:v>
+        <x:v>860.80942</x:v>
       </x:c>
       <x:c r="E493" s="6" t="n">
         <x:v>8598.086</x:v>
@@ -8985,7 +8985,7 @@
         <x:v>11339.36</x:v>
       </x:c>
       <x:c r="D494" s="6" t="n">
-        <x:v>782.64229</x:v>
+        <x:v>782.64538</x:v>
       </x:c>
       <x:c r="E494" s="6" t="n">
         <x:v>8598.0834</x:v>
@@ -8999,7 +8999,7 @@
         <x:v>6588.2</x:v>
       </x:c>
       <x:c r="D495" s="6" t="n">
-        <x:v>717.50568</x:v>
+        <x:v>717.50867</x:v>
       </x:c>
       <x:c r="E495" s="6" t="n">
         <x:v>8598.0859</x:v>
@@ -9062,7 +9062,7 @@
         <x:v>10195.97</x:v>
       </x:c>
       <x:c r="D498" s="6" t="n">
-        <x:v>890.21853</x:v>
+        <x:v>890.22169</x:v>
       </x:c>
       <x:c r="E498" s="6" t="n">
         <x:v>8892.2082</x:v>
@@ -9076,7 +9076,7 @@
         <x:v>14605.27</x:v>
       </x:c>
       <x:c r="D499" s="6" t="n">
-        <x:v>809.38076</x:v>
+        <x:v>809.3838</x:v>
       </x:c>
       <x:c r="E499" s="6" t="n">
         <x:v>8892.1971</x:v>
@@ -9090,7 +9090,7 @@
         <x:v>4544.54</x:v>
       </x:c>
       <x:c r="D500" s="6" t="n">
-        <x:v>742.01597</x:v>
+        <x:v>742.01889</x:v>
       </x:c>
       <x:c r="E500" s="6" t="n">
         <x:v>8892.1918</x:v>
@@ -9153,7 +9153,7 @@
         <x:v>10195.97</x:v>
       </x:c>
       <x:c r="D503" s="6" t="n">
-        <x:v>890.21853</x:v>
+        <x:v>890.22169</x:v>
       </x:c>
       <x:c r="E503" s="6" t="n">
         <x:v>8892.2082</x:v>
@@ -9167,7 +9167,7 @@
         <x:v>14605.27</x:v>
       </x:c>
       <x:c r="D504" s="6" t="n">
-        <x:v>809.38076</x:v>
+        <x:v>809.3838</x:v>
       </x:c>
       <x:c r="E504" s="6" t="n">
         <x:v>8892.1971</x:v>
@@ -9181,7 +9181,7 @@
         <x:v>4544.54</x:v>
       </x:c>
       <x:c r="D505" s="6" t="n">
-        <x:v>742.01597</x:v>
+        <x:v>742.01889</x:v>
       </x:c>
       <x:c r="E505" s="6" t="n">
         <x:v>8892.1918</x:v>
